--- a/import-files/sendig-3-0.xlsx
+++ b/import-files/sendig-3-0.xlsx
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7493" uniqueCount="2589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7490" uniqueCount="2583">
   <si>
     <t>mms:context</t>
   </si>
@@ -7686,9 +7686,6 @@
     <t>sdtm-1-2:DataElement.Intervention.--LOC</t>
   </si>
   <si>
-    <t>sdtm-1-2:DataElement.Intervention.--METHOD</t>
-  </si>
-  <si>
     <t>sdtm-1-2:DataElement.Intervention.--TRTV</t>
   </si>
   <si>
@@ -7701,18 +7698,6 @@
     <t>sdtm-1-2:DataElement.Intervention.--ADJ</t>
   </si>
   <si>
-    <t>sdtm-1-2:DataElement.Intervention.--DUR</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Intervention.--ELTM</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Intervention.--TPTREF</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Intervention.--RFTDTC</t>
-  </si>
-  <si>
     <t>sdtm-1-2:DataElement.Event.--TERM</t>
   </si>
   <si>
@@ -7752,21 +7737,6 @@
     <t>sdtm-1-2:DataElement.Finding.--FAST</t>
   </si>
   <si>
-    <t>sdtm-1-2:DataElement.Finding.--EXCLFL</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Finding.--REASEX</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Finding.--ELTM</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Finding.--TPTREF</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Finding.--RFTDTC</t>
-  </si>
-  <si>
     <t>sdtm-1-2:DataElement.Identifier.--GRPID</t>
   </si>
   <si>
@@ -7806,21 +7776,12 @@
     <t>sdtm-1-2:DataElement.Finding.--NAM</t>
   </si>
   <si>
-    <t>sdtm-1-2:DataElement.Finding.--LEAD</t>
-  </si>
-  <si>
     <t>sdtm-1-2:DataElement.Finding.--METHOD</t>
   </si>
   <si>
-    <t>sdtm-1-2:DataElement.Finding.--CSTATE</t>
-  </si>
-  <si>
     <t>sdtm-1-2:DataElement.Finding.--DRVFL</t>
   </si>
   <si>
-    <t>sdtm-1-2:DataElement.Finding.--EVLINT</t>
-  </si>
-  <si>
     <t>sdtm-1-2:DataElement.Finding.--ORNRLO</t>
   </si>
   <si>
@@ -7842,24 +7803,9 @@
     <t>sdtm-1-2:DataElement.Finding.--SPEC</t>
   </si>
   <si>
-    <t>sdtm-1-2:DataElement.Finding.--ANTREG</t>
-  </si>
-  <si>
     <t>sdtm-1-2:DataElement.Finding.--SPCCND</t>
   </si>
   <si>
-    <t>sdtm-1-2:DataElement.Finding.--SPCUFL</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Finding.--LAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Finding.--DIR</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Finding.--PORTOT</t>
-  </si>
-  <si>
     <t>sdtm-1-2:DataElement.Finding.--TOX</t>
   </si>
   <si>
@@ -7872,15 +7818,6 @@
     <t>sdtm-1-2:DataElement.Finding.--LLOQ</t>
   </si>
   <si>
-    <t>sdtm-1-2:DataElement.Finding.--STINT</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Finding.--ENINT</t>
-  </si>
-  <si>
-    <t>sdtm-1-2:DataElement.Finding.--DETECT</t>
-  </si>
-  <si>
     <t>sdtm-1-2:DataElement.Timing.EPOCH</t>
   </si>
   <si>
@@ -7909,6 +7846,51 @@
   </si>
   <si>
     <t>sdtm-1-2:DataElement.Timing.VISITDY</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--ANTREG</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--EXCLFL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--REASEX</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--LEAD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--CSTATE</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--SPCUFL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--LAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--DIR</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--PORTOT</t>
+  </si>
+  <si>
+    <t>sdtm-1-2:DataElement.Timing.--DUR</t>
+  </si>
+  <si>
+    <t>sdtm-1-2:DataElement.Timing.--ELTM</t>
+  </si>
+  <si>
+    <t>sdtm-1-2:DataElement.Timing.--TPTREF</t>
+  </si>
+  <si>
+    <t>sdtm-1-2:DataElement.Timing.--RFTDTC</t>
+  </si>
+  <si>
+    <t>sdtm-1-2:DataElement.Timing.--EVLINT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--DETECT</t>
   </si>
 </sst>
 </file>
@@ -10104,7 +10086,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -10804,7 +10786,7 @@
     <col min="1" max="1" width="39.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="98.85546875" style="9" customWidth="1"/>
@@ -11009,7 +10991,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>2580</v>
+        <v>2559</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>151</v>
@@ -11047,7 +11029,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>153</v>
@@ -11834,7 +11816,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>146</v>
@@ -11872,7 +11854,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>574</v>
@@ -12114,7 +12096,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>2580</v>
+        <v>2559</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>404</v>
@@ -12152,7 +12134,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>407</v>
@@ -12735,9 +12717,6 @@
       <c r="C55" s="13">
         <v>15</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>2514</v>
-      </c>
       <c r="E55" s="9" t="s">
         <v>593</v>
       </c>
@@ -12771,7 +12750,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>237</v>
@@ -12806,7 +12785,7 @@
         <v>17</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>238</v>
@@ -12841,7 +12820,7 @@
         <v>18</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>239</v>
@@ -12882,7 +12861,7 @@
         <v>19</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>240</v>
@@ -12917,7 +12896,7 @@
         <v>20</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>2580</v>
+        <v>2559</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>242</v>
@@ -12955,7 +12934,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>244</v>
@@ -12993,7 +12972,7 @@
         <v>22</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>2584</v>
+        <v>2563</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>246</v>
@@ -13028,7 +13007,7 @@
         <v>23</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>2585</v>
+        <v>2564</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>248</v>
@@ -13063,7 +13042,7 @@
         <v>24</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>2519</v>
+        <v>2577</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>250</v>
@@ -13101,7 +13080,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>2586</v>
+        <v>2565</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>252</v>
@@ -13136,7 +13115,7 @@
         <v>26</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>2587</v>
+        <v>2566</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>253</v>
@@ -13171,7 +13150,7 @@
         <v>27</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>2520</v>
+        <v>2578</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>255</v>
@@ -13209,7 +13188,7 @@
         <v>28</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>2521</v>
+        <v>2579</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>256</v>
@@ -13244,7 +13223,7 @@
         <v>29</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>2522</v>
+        <v>2580</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>609</v>
@@ -13425,7 +13404,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>2523</v>
+        <v>2518</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>174</v>
@@ -13460,7 +13439,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>2524</v>
+        <v>2519</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>176</v>
@@ -13501,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>2588</v>
+        <v>2567</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>44</v>
@@ -13536,7 +13515,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>2580</v>
+        <v>2559</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>178</v>
@@ -13574,7 +13553,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>2584</v>
+        <v>2563</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>179</v>
@@ -13752,7 +13731,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>621</v>
@@ -13793,7 +13772,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>625</v>
@@ -13834,7 +13813,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>629</v>
@@ -13869,7 +13848,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>631</v>
@@ -13910,7 +13889,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>634</v>
@@ -13945,7 +13924,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>637</v>
@@ -13980,7 +13959,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>640</v>
@@ -14021,7 +14000,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>643</v>
@@ -14062,7 +14041,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>646</v>
@@ -14097,7 +14076,7 @@
         <v>14</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>648</v>
@@ -14138,7 +14117,7 @@
         <v>15</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>2535</v>
+        <v>2530</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>650</v>
@@ -14179,7 +14158,7 @@
         <v>16</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>652</v>
@@ -14220,7 +14199,7 @@
         <v>17</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>655</v>
@@ -14255,7 +14234,7 @@
         <v>18</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>2588</v>
+        <v>2567</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>44</v>
@@ -14290,7 +14269,7 @@
         <v>19</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>660</v>
@@ -14328,7 +14307,7 @@
         <v>20</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>663</v>
@@ -14506,7 +14485,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>667</v>
@@ -14547,7 +14526,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>670</v>
@@ -14588,7 +14567,7 @@
         <v>7</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>673</v>
@@ -14623,7 +14602,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>675</v>
@@ -14664,7 +14643,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>676</v>
@@ -14699,7 +14678,7 @@
         <v>10</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>678</v>
@@ -14734,7 +14713,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>680</v>
@@ -14775,7 +14754,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>682</v>
@@ -14816,7 +14795,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>685</v>
@@ -14851,7 +14830,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>687</v>
@@ -14892,7 +14871,7 @@
         <v>15</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>688</v>
@@ -14927,7 +14906,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>690</v>
@@ -14965,7 +14944,7 @@
         <v>17</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>692</v>
@@ -15003,7 +14982,7 @@
         <v>18</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>695</v>
@@ -15038,7 +15017,7 @@
         <v>19</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>2585</v>
+        <v>2564</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>697</v>
@@ -15073,7 +15052,7 @@
         <v>20</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>2538</v>
+        <v>2578</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>700</v>
@@ -15111,7 +15090,7 @@
         <v>21</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>2539</v>
+        <v>2579</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>702</v>
@@ -15146,7 +15125,7 @@
         <v>22</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>2540</v>
+        <v>2580</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>704</v>
@@ -15359,7 +15338,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>708</v>
@@ -15394,7 +15373,7 @@
         <v>7</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>711</v>
@@ -15429,7 +15408,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>714</v>
@@ -15464,7 +15443,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>716</v>
@@ -15499,7 +15478,7 @@
         <v>10</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>718</v>
@@ -15540,7 +15519,7 @@
         <v>11</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>722</v>
@@ -15575,7 +15554,7 @@
         <v>12</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>2545</v>
+        <v>2535</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>725</v>
@@ -15616,7 +15595,7 @@
         <v>13</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>728</v>
@@ -15651,7 +15630,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>730</v>
@@ -15686,7 +15665,7 @@
         <v>15</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>2546</v>
+        <v>2536</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>732</v>
@@ -15721,7 +15700,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>734</v>
@@ -15762,7 +15741,7 @@
         <v>17</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>736</v>
@@ -15797,7 +15776,7 @@
         <v>18</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>2547</v>
+        <v>2537</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>738</v>
@@ -15832,7 +15811,7 @@
         <v>19</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>741</v>
@@ -15867,7 +15846,7 @@
         <v>20</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>2549</v>
+        <v>2539</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>743</v>
@@ -15902,7 +15881,7 @@
         <v>21</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>745</v>
@@ -15943,7 +15922,7 @@
         <v>22</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>746</v>
@@ -15978,7 +15957,7 @@
         <v>23</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>2588</v>
+        <v>2567</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>44</v>
@@ -16013,7 +15992,7 @@
         <v>24</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>748</v>
@@ -16051,7 +16030,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>750</v>
@@ -16086,7 +16065,7 @@
         <v>26</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>2586</v>
+        <v>2565</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>753</v>
@@ -16121,7 +16100,7 @@
         <v>27</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>2587</v>
+        <v>2566</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>755</v>
@@ -16156,7 +16135,7 @@
         <v>28</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>2538</v>
+        <v>2578</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>756</v>
@@ -16194,7 +16173,7 @@
         <v>29</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>2539</v>
+        <v>2579</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>758</v>
@@ -16229,7 +16208,7 @@
         <v>30</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>2540</v>
+        <v>2580</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>760</v>
@@ -16410,7 +16389,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>763</v>
@@ -16451,7 +16430,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>767</v>
@@ -16492,7 +16471,7 @@
         <v>7</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>771</v>
@@ -16527,7 +16506,7 @@
         <v>8</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>773</v>
@@ -16562,7 +16541,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>2546</v>
+        <v>2536</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>775</v>
@@ -16597,7 +16576,7 @@
         <v>10</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>777</v>
@@ -16632,7 +16611,7 @@
         <v>11</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>779</v>
@@ -16670,7 +16649,7 @@
         <v>12</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>782</v>
@@ -16848,7 +16827,7 @@
         <v>5</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>181</v>
@@ -16883,7 +16862,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>2550</v>
+        <v>2540</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>182</v>
@@ -16918,7 +16897,7 @@
         <v>7</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>183</v>
@@ -16953,7 +16932,7 @@
         <v>8</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>184</v>
@@ -16994,7 +16973,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>187</v>
@@ -17035,7 +17014,7 @@
         <v>10</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>190</v>
@@ -17076,7 +17055,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>2551</v>
+        <v>2541</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>192</v>
@@ -17117,7 +17096,7 @@
         <v>12</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>195</v>
@@ -17152,7 +17131,7 @@
         <v>13</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>196</v>
@@ -17193,7 +17172,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>197</v>
@@ -17234,7 +17213,7 @@
         <v>15</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>199</v>
@@ -17269,7 +17248,7 @@
         <v>16</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>201</v>
@@ -17310,7 +17289,7 @@
         <v>17</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>202</v>
@@ -17351,7 +17330,7 @@
         <v>18</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>203</v>
@@ -17386,7 +17365,7 @@
         <v>19</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>2552</v>
+        <v>2542</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>204</v>
@@ -17421,7 +17400,7 @@
         <v>20</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>2553</v>
+        <v>2543</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>206</v>
@@ -17456,7 +17435,7 @@
         <v>21</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>2554</v>
+        <v>2571</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>796</v>
@@ -17497,7 +17476,7 @@
         <v>22</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>2555</v>
+        <v>2544</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>209</v>
@@ -17538,7 +17517,7 @@
         <v>23</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>2556</v>
+        <v>2572</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>801</v>
@@ -17579,7 +17558,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>212</v>
@@ -17620,7 +17599,7 @@
         <v>25</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>2557</v>
+        <v>2545</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>213</v>
@@ -17661,7 +17640,7 @@
         <v>26</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>214</v>
@@ -17696,7 +17675,7 @@
         <v>27</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>806</v>
@@ -17737,7 +17716,7 @@
         <v>28</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>807</v>
@@ -17772,7 +17751,7 @@
         <v>29</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>2588</v>
+        <v>2567</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>44</v>
@@ -17807,7 +17786,7 @@
         <v>30</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>215</v>
@@ -17845,7 +17824,7 @@
         <v>31</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>810</v>
@@ -17883,7 +17862,7 @@
         <v>32</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>217</v>
@@ -17918,7 +17897,7 @@
         <v>33</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>2585</v>
+        <v>2564</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>815</v>
@@ -17953,7 +17932,7 @@
         <v>34</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>2586</v>
+        <v>2565</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>218</v>
@@ -17988,7 +17967,7 @@
         <v>35</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>2587</v>
+        <v>2566</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>219</v>
@@ -18023,7 +18002,7 @@
         <v>36</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>2538</v>
+        <v>2578</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>221</v>
@@ -18061,7 +18040,7 @@
         <v>37</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>2539</v>
+        <v>2579</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>222</v>
@@ -18096,7 +18075,7 @@
         <v>38</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>2540</v>
+        <v>2580</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>223</v>
@@ -18134,7 +18113,7 @@
         <v>39</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>2558</v>
+        <v>2581</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>821</v>
@@ -18347,7 +18326,7 @@
         <v>6</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>826</v>
@@ -18382,7 +18361,7 @@
         <v>7</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>827</v>
@@ -18423,7 +18402,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>831</v>
@@ -18464,7 +18443,7 @@
         <v>9</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>835</v>
@@ -18499,7 +18478,7 @@
         <v>10</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>836</v>
@@ -18540,7 +18519,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>837</v>
@@ -18575,7 +18554,7 @@
         <v>12</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>839</v>
@@ -18610,7 +18589,7 @@
         <v>13</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>841</v>
@@ -18651,7 +18630,7 @@
         <v>14</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>843</v>
@@ -18692,7 +18671,7 @@
         <v>15</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>845</v>
@@ -18727,7 +18706,7 @@
         <v>16</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="E217" s="9" t="s">
         <v>847</v>
@@ -18768,7 +18747,7 @@
         <v>17</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="E218" s="9" t="s">
         <v>848</v>
@@ -18803,7 +18782,7 @@
         <v>18</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>850</v>
@@ -18841,7 +18820,7 @@
         <v>19</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="E220" s="9" t="s">
         <v>853</v>
@@ -18879,7 +18858,7 @@
         <v>20</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E221" s="9" t="s">
         <v>855</v>
@@ -18914,7 +18893,7 @@
         <v>21</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>2585</v>
+        <v>2564</v>
       </c>
       <c r="E222" s="9" t="s">
         <v>857</v>
@@ -19124,7 +19103,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>258</v>
@@ -19159,7 +19138,7 @@
         <v>7</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>2550</v>
+        <v>2540</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>259</v>
@@ -19194,7 +19173,7 @@
         <v>8</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>260</v>
@@ -19229,7 +19208,7 @@
         <v>9</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E231" s="9" t="s">
         <v>261</v>
@@ -19270,7 +19249,7 @@
         <v>10</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E232" s="9" t="s">
         <v>264</v>
@@ -19311,7 +19290,7 @@
         <v>11</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
       <c r="E233" s="9" t="s">
         <v>267</v>
@@ -19346,7 +19325,7 @@
         <v>12</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>269</v>
@@ -19381,7 +19360,7 @@
         <v>13</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>271</v>
@@ -19416,7 +19395,7 @@
         <v>14</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E236" s="9" t="s">
         <v>273</v>
@@ -19457,7 +19436,7 @@
         <v>15</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>2559</v>
+        <v>2546</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>274</v>
@@ -19492,7 +19471,7 @@
         <v>16</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>2560</v>
+        <v>2547</v>
       </c>
       <c r="E238" s="9" t="s">
         <v>275</v>
@@ -19527,7 +19506,7 @@
         <v>17</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>276</v>
@@ -19562,7 +19541,7 @@
         <v>18</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E240" s="9" t="s">
         <v>277</v>
@@ -19597,7 +19576,7 @@
         <v>19</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E241" s="9" t="s">
         <v>278</v>
@@ -19638,7 +19617,7 @@
         <v>20</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>2561</v>
+        <v>2548</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>279</v>
@@ -19673,7 +19652,7 @@
         <v>21</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>2562</v>
+        <v>2549</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>280</v>
@@ -19708,7 +19687,7 @@
         <v>22</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>2563</v>
+        <v>2550</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>282</v>
@@ -19743,7 +19722,7 @@
         <v>23</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>2564</v>
+        <v>2551</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>283</v>
@@ -19778,7 +19757,7 @@
         <v>24</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E246" s="9" t="s">
         <v>285</v>
@@ -19819,7 +19798,7 @@
         <v>25</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E247" s="9" t="s">
         <v>286</v>
@@ -19854,7 +19833,7 @@
         <v>26</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>2553</v>
+        <v>2543</v>
       </c>
       <c r="E248" s="9" t="s">
         <v>287</v>
@@ -19889,7 +19868,7 @@
         <v>27</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="E249" s="9" t="s">
         <v>288</v>
@@ -19930,7 +19909,7 @@
         <v>28</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>885</v>
@@ -19965,7 +19944,7 @@
         <v>29</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="E251" s="9" t="s">
         <v>290</v>
@@ -20000,7 +19979,7 @@
         <v>30</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
       <c r="E252" s="9" t="s">
         <v>889</v>
@@ -20041,7 +20020,7 @@
         <v>31</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>2547</v>
+        <v>2537</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>892</v>
@@ -20076,7 +20055,7 @@
         <v>32</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>894</v>
@@ -20117,7 +20096,7 @@
         <v>33</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="E255" s="9" t="s">
         <v>898</v>
@@ -20158,7 +20137,7 @@
         <v>34</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>2571</v>
+        <v>2576</v>
       </c>
       <c r="E256" s="9" t="s">
         <v>902</v>
@@ -20199,7 +20178,7 @@
         <v>35</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>2555</v>
+        <v>2544</v>
       </c>
       <c r="E257" s="9" t="s">
         <v>291</v>
@@ -20234,7 +20213,7 @@
         <v>36</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="E258" s="9" t="s">
         <v>292</v>
@@ -20275,7 +20254,7 @@
         <v>37</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>2535</v>
+        <v>2530</v>
       </c>
       <c r="E259" s="9" t="s">
         <v>293</v>
@@ -20316,7 +20295,7 @@
         <v>38</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>2557</v>
+        <v>2545</v>
       </c>
       <c r="E260" s="9" t="s">
         <v>294</v>
@@ -20357,7 +20336,7 @@
         <v>39</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>2572</v>
+        <v>2554</v>
       </c>
       <c r="E261" s="9" t="s">
         <v>295</v>
@@ -20392,7 +20371,7 @@
         <v>40</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>2573</v>
+        <v>2555</v>
       </c>
       <c r="E262" s="9" t="s">
         <v>296</v>
@@ -20427,7 +20406,7 @@
         <v>41</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="E263" s="9" t="s">
         <v>911</v>
@@ -20468,7 +20447,7 @@
         <v>42</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>912</v>
@@ -20503,7 +20482,7 @@
         <v>43</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>2588</v>
+        <v>2567</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>44</v>
@@ -20538,7 +20517,7 @@
         <v>44</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E266" s="9" t="s">
         <v>297</v>
@@ -20576,7 +20555,7 @@
         <v>45</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="E267" s="9" t="s">
         <v>299</v>
@@ -20614,7 +20593,7 @@
         <v>46</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E268" s="9" t="s">
         <v>301</v>
@@ -20649,7 +20628,7 @@
         <v>47</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>2585</v>
+        <v>2564</v>
       </c>
       <c r="E269" s="9" t="s">
         <v>917</v>
@@ -20684,7 +20663,7 @@
         <v>48</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>2586</v>
+        <v>2565</v>
       </c>
       <c r="E270" s="9" t="s">
         <v>303</v>
@@ -20719,7 +20698,7 @@
         <v>49</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>2587</v>
+        <v>2566</v>
       </c>
       <c r="E271" s="9" t="s">
         <v>304</v>
@@ -20754,7 +20733,7 @@
         <v>50</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>2538</v>
+        <v>2578</v>
       </c>
       <c r="E272" s="9" t="s">
         <v>306</v>
@@ -20792,7 +20771,7 @@
         <v>51</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>2539</v>
+        <v>2579</v>
       </c>
       <c r="E273" s="9" t="s">
         <v>307</v>
@@ -20827,7 +20806,7 @@
         <v>52</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>2540</v>
+        <v>2580</v>
       </c>
       <c r="E274" s="9" t="s">
         <v>308</v>
@@ -21008,7 +20987,7 @@
         <v>5</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E279" s="9" t="s">
         <v>925</v>
@@ -21043,7 +21022,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>2550</v>
+        <v>2540</v>
       </c>
       <c r="E280" s="9" t="s">
         <v>927</v>
@@ -21078,7 +21057,7 @@
         <v>7</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="E281" s="9" t="s">
         <v>930</v>
@@ -21113,7 +21092,7 @@
         <v>8</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>932</v>
@@ -21154,7 +21133,7 @@
         <v>9</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E283" s="9" t="s">
         <v>936</v>
@@ -21195,7 +21174,7 @@
         <v>10</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>2545</v>
+        <v>2535</v>
       </c>
       <c r="E284" s="9" t="s">
         <v>940</v>
@@ -21236,7 +21215,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E285" s="9" t="s">
         <v>941</v>
@@ -21271,7 +21250,7 @@
         <v>12</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E286" s="9" t="s">
         <v>943</v>
@@ -21306,7 +21285,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E287" s="9" t="s">
         <v>945</v>
@@ -21347,7 +21326,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E288" s="9" t="s">
         <v>947</v>
@@ -21382,7 +21361,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>2553</v>
+        <v>2543</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>949</v>
@@ -21417,7 +21396,7 @@
         <v>16</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>952</v>
@@ -21458,7 +21437,7 @@
         <v>17</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>954</v>
@@ -21493,7 +21472,7 @@
         <v>18</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="E292" s="9" t="s">
         <v>955</v>
@@ -21528,7 +21507,7 @@
         <v>19</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>957</v>
@@ -21569,7 +21548,7 @@
         <v>20</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>958</v>
@@ -21610,7 +21589,7 @@
         <v>21</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="E295" s="9" t="s">
         <v>959</v>
@@ -21651,7 +21630,7 @@
         <v>22</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>2571</v>
+        <v>2576</v>
       </c>
       <c r="E296" s="9" t="s">
         <v>961</v>
@@ -21692,7 +21671,7 @@
         <v>23</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="E297" s="9" t="s">
         <v>962</v>
@@ -21727,7 +21706,7 @@
         <v>24</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>2549</v>
+        <v>2539</v>
       </c>
       <c r="E298" s="9" t="s">
         <v>964</v>
@@ -21768,7 +21747,7 @@
         <v>25</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>2574</v>
+        <v>2556</v>
       </c>
       <c r="E299" s="9" t="s">
         <v>966</v>
@@ -21809,7 +21788,7 @@
         <v>26</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E300" s="9" t="s">
         <v>968</v>
@@ -21847,7 +21826,7 @@
         <v>27</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>970</v>
@@ -22025,7 +22004,7 @@
         <v>5</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E306" s="9" t="s">
         <v>973</v>
@@ -22060,7 +22039,7 @@
         <v>6</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>2550</v>
+        <v>2540</v>
       </c>
       <c r="E307" s="9" t="s">
         <v>974</v>
@@ -22095,7 +22074,7 @@
         <v>7</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="E308" s="9" t="s">
         <v>976</v>
@@ -22130,7 +22109,7 @@
         <v>8</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E309" s="9" t="s">
         <v>977</v>
@@ -22171,7 +22150,7 @@
         <v>9</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E310" s="9" t="s">
         <v>981</v>
@@ -22212,7 +22191,7 @@
         <v>10</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>2545</v>
+        <v>2535</v>
       </c>
       <c r="E311" s="9" t="s">
         <v>985</v>
@@ -22253,7 +22232,7 @@
         <v>11</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E312" s="9" t="s">
         <v>986</v>
@@ -22288,7 +22267,7 @@
         <v>12</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E313" s="9" t="s">
         <v>988</v>
@@ -22323,7 +22302,7 @@
         <v>13</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>2546</v>
+        <v>2536</v>
       </c>
       <c r="E314" s="9" t="s">
         <v>990</v>
@@ -22364,7 +22343,7 @@
         <v>14</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E315" s="9" t="s">
         <v>993</v>
@@ -22405,7 +22384,7 @@
         <v>15</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E316" s="9" t="s">
         <v>994</v>
@@ -22440,7 +22419,7 @@
         <v>16</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>2553</v>
+        <v>2543</v>
       </c>
       <c r="E317" s="9" t="s">
         <v>996</v>
@@ -22475,7 +22454,7 @@
         <v>17</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="E318" s="9" t="s">
         <v>998</v>
@@ -22516,7 +22495,7 @@
         <v>18</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="E319" s="9" t="s">
         <v>1000</v>
@@ -22551,7 +22530,7 @@
         <v>19</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="E320" s="9" t="s">
         <v>1002</v>
@@ -22586,7 +22565,7 @@
         <v>20</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
       <c r="E321" s="9" t="s">
         <v>1003</v>
@@ -22627,7 +22606,7 @@
         <v>21</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>2555</v>
+        <v>2544</v>
       </c>
       <c r="E322" s="9" t="s">
         <v>1004</v>
@@ -22662,7 +22641,7 @@
         <v>22</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="E323" s="9" t="s">
         <v>1006</v>
@@ -22703,7 +22682,7 @@
         <v>23</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="E324" s="9" t="s">
         <v>1007</v>
@@ -22744,7 +22723,7 @@
         <v>24</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="E325" s="9" t="s">
         <v>1008</v>
@@ -22779,7 +22758,7 @@
         <v>25</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>2549</v>
+        <v>2539</v>
       </c>
       <c r="E326" s="9" t="s">
         <v>1010</v>
@@ -22820,7 +22799,7 @@
         <v>26</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>2574</v>
+        <v>2556</v>
       </c>
       <c r="E327" s="9" t="s">
         <v>1012</v>
@@ -22861,7 +22840,7 @@
         <v>27</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E328" s="9" t="s">
         <v>1014</v>
@@ -22899,7 +22878,7 @@
         <v>28</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E329" s="9" t="s">
         <v>1016</v>
@@ -23077,7 +23056,7 @@
         <v>5</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>1018</v>
@@ -23118,7 +23097,7 @@
         <v>6</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E335" s="9" t="s">
         <v>1021</v>
@@ -23159,7 +23138,7 @@
         <v>7</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E336" s="9" t="s">
         <v>1024</v>
@@ -23194,7 +23173,7 @@
         <v>8</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E337" s="9" t="s">
         <v>1025</v>
@@ -23235,7 +23214,7 @@
         <v>9</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E338" s="9" t="s">
         <v>1026</v>
@@ -23270,7 +23249,7 @@
         <v>10</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E339" s="9" t="s">
         <v>1028</v>
@@ -23305,7 +23284,7 @@
         <v>11</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E340" s="9" t="s">
         <v>1030</v>
@@ -23346,7 +23325,7 @@
         <v>12</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E341" s="9" t="s">
         <v>1032</v>
@@ -23387,7 +23366,7 @@
         <v>13</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E342" s="9" t="s">
         <v>1035</v>
@@ -23422,7 +23401,7 @@
         <v>14</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="E343" s="9" t="s">
         <v>1037</v>
@@ -23463,7 +23442,7 @@
         <v>15</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="E344" s="9" t="s">
         <v>1039</v>
@@ -23498,7 +23477,7 @@
         <v>16</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="E345" s="9" t="s">
         <v>1041</v>
@@ -23533,7 +23512,7 @@
         <v>17</v>
       </c>
       <c r="D346" s="9" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>1043</v>
@@ -23574,7 +23553,7 @@
         <v>18</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="E347" s="9" t="s">
         <v>1044</v>
@@ -23615,7 +23594,7 @@
         <v>19</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="E348" s="9" t="s">
         <v>1045</v>
@@ -23656,7 +23635,7 @@
         <v>20</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>2571</v>
+        <v>2576</v>
       </c>
       <c r="E349" s="9" t="s">
         <v>1046</v>
@@ -23697,7 +23676,7 @@
         <v>21</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="E350" s="9" t="s">
         <v>1047</v>
@@ -23738,7 +23717,7 @@
         <v>22</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="E351" s="9" t="s">
         <v>1048</v>
@@ -23773,7 +23752,7 @@
         <v>23</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E352" s="9" t="s">
         <v>1050</v>
@@ -23811,7 +23790,7 @@
         <v>24</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E353" s="9" t="s">
         <v>1053</v>
@@ -23989,7 +23968,7 @@
         <v>5</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E358" s="9" t="s">
         <v>1057</v>
@@ -24024,7 +24003,7 @@
         <v>6</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="E359" s="9" t="s">
         <v>1058</v>
@@ -24059,7 +24038,7 @@
         <v>7</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E360" s="9" t="s">
         <v>1059</v>
@@ -24100,7 +24079,7 @@
         <v>8</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E361" s="9" t="s">
         <v>1062</v>
@@ -24141,7 +24120,7 @@
         <v>9</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E362" s="9" t="s">
         <v>1065</v>
@@ -24176,7 +24155,7 @@
         <v>10</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E363" s="9" t="s">
         <v>1067</v>
@@ -24217,7 +24196,7 @@
         <v>11</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E364" s="9" t="s">
         <v>1069</v>
@@ -24252,7 +24231,7 @@
         <v>12</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E365" s="9" t="s">
         <v>1071</v>
@@ -24287,7 +24266,7 @@
         <v>13</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E366" s="9" t="s">
         <v>1073</v>
@@ -24328,7 +24307,7 @@
         <v>14</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E367" s="9" t="s">
         <v>1075</v>
@@ -24369,7 +24348,7 @@
         <v>15</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E368" s="9" t="s">
         <v>1077</v>
@@ -24404,7 +24383,7 @@
         <v>16</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>2547</v>
+        <v>2537</v>
       </c>
       <c r="E369" s="9" t="s">
         <v>1079</v>
@@ -24439,7 +24418,7 @@
         <v>17</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="E370" s="9" t="s">
         <v>1081</v>
@@ -24474,7 +24453,7 @@
         <v>18</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>2588</v>
+        <v>2567</v>
       </c>
       <c r="E371" s="9" t="s">
         <v>44</v>
@@ -24509,7 +24488,7 @@
         <v>19</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E372" s="9" t="s">
         <v>1083</v>
@@ -24547,7 +24526,7 @@
         <v>20</v>
       </c>
       <c r="D373" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E373" s="9" t="s">
         <v>1085</v>
@@ -24757,7 +24736,7 @@
         <v>6</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E379" s="9" t="s">
         <v>312</v>
@@ -24792,7 +24771,7 @@
         <v>7</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>2550</v>
+        <v>2540</v>
       </c>
       <c r="E380" s="9" t="s">
         <v>313</v>
@@ -24827,7 +24806,7 @@
         <v>8</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="E381" s="9" t="s">
         <v>314</v>
@@ -24862,7 +24841,7 @@
         <v>9</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E382" s="9" t="s">
         <v>316</v>
@@ -24897,7 +24876,7 @@
         <v>10</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E383" s="9" t="s">
         <v>317</v>
@@ -24932,7 +24911,7 @@
         <v>11</v>
       </c>
       <c r="D384" s="9" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
       <c r="E384" s="9" t="s">
         <v>318</v>
@@ -24967,7 +24946,7 @@
         <v>12</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="E385" s="9" t="s">
         <v>321</v>
@@ -25002,7 +24981,7 @@
         <v>13</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E386" s="9" t="s">
         <v>324</v>
@@ -25037,7 +25016,7 @@
         <v>14</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E387" s="9" t="s">
         <v>325</v>
@@ -25078,7 +25057,7 @@
         <v>15</v>
       </c>
       <c r="D388" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E388" s="9" t="s">
         <v>326</v>
@@ -25113,7 +25092,7 @@
         <v>16</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E389" s="9" t="s">
         <v>327</v>
@@ -25148,7 +25127,7 @@
         <v>17</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E390" s="9" t="s">
         <v>328</v>
@@ -25189,7 +25168,7 @@
         <v>18</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E391" s="9" t="s">
         <v>330</v>
@@ -25230,7 +25209,7 @@
         <v>19</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E392" s="9" t="s">
         <v>331</v>
@@ -25265,7 +25244,7 @@
         <v>20</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>2553</v>
+        <v>2543</v>
       </c>
       <c r="E393" s="9" t="s">
         <v>332</v>
@@ -25300,7 +25279,7 @@
         <v>21</v>
       </c>
       <c r="D394" s="9" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="E394" s="9" t="s">
         <v>333</v>
@@ -25341,7 +25320,7 @@
         <v>22</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="E395" s="9" t="s">
         <v>334</v>
@@ -25376,7 +25355,7 @@
         <v>23</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>2555</v>
+        <v>2544</v>
       </c>
       <c r="E396" s="9" t="s">
         <v>335</v>
@@ -25411,7 +25390,7 @@
         <v>24</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="E397" s="9" t="s">
         <v>1100</v>
@@ -25452,7 +25431,7 @@
         <v>25</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>2535</v>
+        <v>2530</v>
       </c>
       <c r="E398" s="9" t="s">
         <v>337</v>
@@ -25493,7 +25472,7 @@
         <v>26</v>
       </c>
       <c r="D399" s="9" t="s">
-        <v>2557</v>
+        <v>2545</v>
       </c>
       <c r="E399" s="9" t="s">
         <v>338</v>
@@ -25534,7 +25513,7 @@
         <v>27</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>2575</v>
+        <v>2557</v>
       </c>
       <c r="E400" s="9" t="s">
         <v>339</v>
@@ -25569,7 +25548,7 @@
         <v>28</v>
       </c>
       <c r="D401" s="9" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="E401" s="9" t="s">
         <v>1102</v>
@@ -25610,7 +25589,7 @@
         <v>29</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="E402" s="9" t="s">
         <v>1104</v>
@@ -25645,7 +25624,7 @@
         <v>30</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>2588</v>
+        <v>2567</v>
       </c>
       <c r="E403" s="9" t="s">
         <v>44</v>
@@ -25680,7 +25659,7 @@
         <v>31</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E404" s="9" t="s">
         <v>341</v>
@@ -25718,7 +25697,7 @@
         <v>32</v>
       </c>
       <c r="D405" s="9" t="s">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="E405" s="9" t="s">
         <v>342</v>
@@ -25756,7 +25735,7 @@
         <v>33</v>
       </c>
       <c r="D406" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E406" s="9" t="s">
         <v>343</v>
@@ -25791,7 +25770,7 @@
         <v>34</v>
       </c>
       <c r="D407" s="9" t="s">
-        <v>2585</v>
+        <v>2564</v>
       </c>
       <c r="E407" s="9" t="s">
         <v>1111</v>
@@ -25826,7 +25805,7 @@
         <v>35</v>
       </c>
       <c r="D408" s="9" t="s">
-        <v>2586</v>
+        <v>2565</v>
       </c>
       <c r="E408" s="9" t="s">
         <v>344</v>
@@ -25861,7 +25840,7 @@
         <v>36</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>2587</v>
+        <v>2566</v>
       </c>
       <c r="E409" s="9" t="s">
         <v>345</v>
@@ -25896,7 +25875,7 @@
         <v>37</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>2538</v>
+        <v>2578</v>
       </c>
       <c r="E410" s="9" t="s">
         <v>347</v>
@@ -25934,7 +25913,7 @@
         <v>38</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>2539</v>
+        <v>2579</v>
       </c>
       <c r="E411" s="9" t="s">
         <v>348</v>
@@ -25969,7 +25948,7 @@
         <v>39</v>
       </c>
       <c r="D412" s="9" t="s">
-        <v>2540</v>
+        <v>2580</v>
       </c>
       <c r="E412" s="9" t="s">
         <v>350</v>
@@ -26007,7 +25986,7 @@
         <v>40</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>2558</v>
+        <v>2581</v>
       </c>
       <c r="E413" s="9" t="s">
         <v>353</v>
@@ -26220,7 +26199,7 @@
         <v>6</v>
       </c>
       <c r="D419" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E419" s="9" t="s">
         <v>355</v>
@@ -26255,7 +26234,7 @@
         <v>7</v>
       </c>
       <c r="D420" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E420" s="9" t="s">
         <v>356</v>
@@ -26296,7 +26275,7 @@
         <v>8</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E421" s="9" t="s">
         <v>358</v>
@@ -26337,7 +26316,7 @@
         <v>9</v>
       </c>
       <c r="D422" s="9" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
       <c r="E422" s="9" t="s">
         <v>360</v>
@@ -26372,7 +26351,7 @@
         <v>10</v>
       </c>
       <c r="D423" s="9" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="E423" s="9" t="s">
         <v>363</v>
@@ -26407,7 +26386,7 @@
         <v>11</v>
       </c>
       <c r="D424" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E424" s="9" t="s">
         <v>365</v>
@@ -26442,7 +26421,7 @@
         <v>12</v>
       </c>
       <c r="D425" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E425" s="9" t="s">
         <v>366</v>
@@ -26483,7 +26462,7 @@
         <v>13</v>
       </c>
       <c r="D426" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E426" s="9" t="s">
         <v>367</v>
@@ -26518,7 +26497,7 @@
         <v>14</v>
       </c>
       <c r="D427" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E427" s="9" t="s">
         <v>368</v>
@@ -26553,7 +26532,7 @@
         <v>15</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E428" s="9" t="s">
         <v>369</v>
@@ -26594,7 +26573,7 @@
         <v>16</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E429" s="9" t="s">
         <v>371</v>
@@ -26635,7 +26614,7 @@
         <v>17</v>
       </c>
       <c r="D430" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E430" s="9" t="s">
         <v>373</v>
@@ -26670,7 +26649,7 @@
         <v>18</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="E431" s="9" t="s">
         <v>374</v>
@@ -26711,7 +26690,7 @@
         <v>19</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>2588</v>
+        <v>2567</v>
       </c>
       <c r="E432" s="9" t="s">
         <v>44</v>
@@ -26746,7 +26725,7 @@
         <v>20</v>
       </c>
       <c r="D433" s="9" t="s">
-        <v>2539</v>
+        <v>2579</v>
       </c>
       <c r="E433" s="9" t="s">
         <v>1129</v>
@@ -26781,7 +26760,7 @@
         <v>21</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>2540</v>
+        <v>2580</v>
       </c>
       <c r="E434" s="9" t="s">
         <v>375</v>
@@ -26818,9 +26797,6 @@
       <c r="C435" s="13">
         <v>22</v>
       </c>
-      <c r="D435" s="9" t="s">
-        <v>2576</v>
-      </c>
       <c r="E435" s="9" t="s">
         <v>1131</v>
       </c>
@@ -26856,9 +26832,6 @@
       <c r="C436" s="13">
         <v>23</v>
       </c>
-      <c r="D436" s="9" t="s">
-        <v>2577</v>
-      </c>
       <c r="E436" s="9" t="s">
         <v>1134</v>
       </c>
@@ -27038,7 +27011,7 @@
         <v>5</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E441" s="9" t="s">
         <v>385</v>
@@ -27073,7 +27046,7 @@
         <v>6</v>
       </c>
       <c r="D442" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E442" s="9" t="s">
         <v>386</v>
@@ -27114,7 +27087,7 @@
         <v>7</v>
       </c>
       <c r="D443" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E443" s="9" t="s">
         <v>388</v>
@@ -27155,7 +27128,7 @@
         <v>8</v>
       </c>
       <c r="D444" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E444" s="9" t="s">
         <v>390</v>
@@ -27190,7 +27163,7 @@
         <v>9</v>
       </c>
       <c r="D445" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E445" s="9" t="s">
         <v>392</v>
@@ -27231,7 +27204,7 @@
         <v>10</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E446" s="9" t="s">
         <v>393</v>
@@ -27266,7 +27239,7 @@
         <v>11</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E447" s="9" t="s">
         <v>394</v>
@@ -27301,7 +27274,7 @@
         <v>12</v>
       </c>
       <c r="D448" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E448" s="9" t="s">
         <v>395</v>
@@ -27342,7 +27315,7 @@
         <v>13</v>
       </c>
       <c r="D449" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E449" s="9" t="s">
         <v>397</v>
@@ -27380,7 +27353,7 @@
         <v>14</v>
       </c>
       <c r="D450" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E450" s="9" t="s">
         <v>398</v>
@@ -27558,7 +27531,7 @@
         <v>5</v>
       </c>
       <c r="D455" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E455" s="9" t="s">
         <v>1147</v>
@@ -27593,7 +27566,7 @@
         <v>6</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>2550</v>
+        <v>2540</v>
       </c>
       <c r="E456" s="9" t="s">
         <v>1148</v>
@@ -27628,7 +27601,7 @@
         <v>7</v>
       </c>
       <c r="D457" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="E457" s="9" t="s">
         <v>1149</v>
@@ -27663,7 +27636,7 @@
         <v>8</v>
       </c>
       <c r="D458" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E458" s="9" t="s">
         <v>1151</v>
@@ -27704,7 +27677,7 @@
         <v>9</v>
       </c>
       <c r="D459" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E459" s="9" t="s">
         <v>1155</v>
@@ -27745,7 +27718,7 @@
         <v>10</v>
       </c>
       <c r="D460" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E460" s="9" t="s">
         <v>1159</v>
@@ -27780,7 +27753,7 @@
         <v>11</v>
       </c>
       <c r="D461" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E461" s="9" t="s">
         <v>1161</v>
@@ -27821,7 +27794,7 @@
         <v>12</v>
       </c>
       <c r="D462" s="9" t="s">
-        <v>2546</v>
+        <v>2536</v>
       </c>
       <c r="E462" s="9" t="s">
         <v>1164</v>
@@ -27862,7 +27835,7 @@
         <v>13</v>
       </c>
       <c r="D463" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E463" s="9" t="s">
         <v>1168</v>
@@ -27903,7 +27876,7 @@
         <v>14</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E464" s="9" t="s">
         <v>1170</v>
@@ -27970,7 +27943,7 @@
         <v>16</v>
       </c>
       <c r="D466" s="9" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="E466" s="9" t="s">
         <v>1173</v>
@@ -28011,7 +27984,7 @@
         <v>17</v>
       </c>
       <c r="D467" s="9" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="E467" s="9" t="s">
         <v>1175</v>
@@ -28046,7 +28019,7 @@
         <v>18</v>
       </c>
       <c r="D468" s="9" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
       <c r="E468" s="9" t="s">
         <v>1177</v>
@@ -28081,7 +28054,7 @@
         <v>19</v>
       </c>
       <c r="D469" s="9" t="s">
-        <v>2555</v>
+        <v>2544</v>
       </c>
       <c r="E469" s="9" t="s">
         <v>1179</v>
@@ -28116,7 +28089,7 @@
         <v>20</v>
       </c>
       <c r="D470" s="9" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="E470" s="9" t="s">
         <v>1181</v>
@@ -28157,7 +28130,7 @@
         <v>21</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="E471" s="9" t="s">
         <v>1182</v>
@@ -28198,7 +28171,7 @@
         <v>22</v>
       </c>
       <c r="D472" s="9" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="E472" s="9" t="s">
         <v>1183</v>
@@ -28233,7 +28206,7 @@
         <v>23</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>2574</v>
+        <v>2556</v>
       </c>
       <c r="E473" s="9" t="s">
         <v>1184</v>
@@ -28274,7 +28247,7 @@
         <v>24</v>
       </c>
       <c r="D474" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E474" s="9" t="s">
         <v>1186</v>
@@ -28312,7 +28285,7 @@
         <v>25</v>
       </c>
       <c r="D475" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E475" s="9" t="s">
         <v>1187</v>
@@ -28347,7 +28320,7 @@
         <v>26</v>
       </c>
       <c r="D476" s="9" t="s">
-        <v>2578</v>
+        <v>2582</v>
       </c>
       <c r="E476" s="9" t="s">
         <v>1188</v>
@@ -28522,7 +28495,7 @@
         <v>5</v>
       </c>
       <c r="D481" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E481" s="9" t="s">
         <v>450</v>
@@ -28557,7 +28530,7 @@
         <v>6</v>
       </c>
       <c r="D482" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="E482" s="9" t="s">
         <v>451</v>
@@ -28592,7 +28565,7 @@
         <v>7</v>
       </c>
       <c r="D483" s="9" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="E483" s="9" t="s">
         <v>452</v>
@@ -28633,7 +28606,7 @@
         <v>8</v>
       </c>
       <c r="D484" s="9" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="E484" s="9" t="s">
         <v>455</v>
@@ -28674,7 +28647,7 @@
         <v>9</v>
       </c>
       <c r="D485" s="9" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
       <c r="E485" s="9" t="s">
         <v>458</v>
@@ -28709,7 +28682,7 @@
         <v>10</v>
       </c>
       <c r="D486" s="9" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="E486" s="9" t="s">
         <v>460</v>
@@ -28744,7 +28717,7 @@
         <v>11</v>
       </c>
       <c r="D487" s="9" t="s">
-        <v>2551</v>
+        <v>2541</v>
       </c>
       <c r="E487" s="9" t="s">
         <v>463</v>
@@ -28785,7 +28758,7 @@
         <v>12</v>
       </c>
       <c r="D488" s="9" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="E488" s="9" t="s">
         <v>465</v>
@@ -28820,7 +28793,7 @@
         <v>13</v>
       </c>
       <c r="D489" s="9" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="E489" s="9" t="s">
         <v>467</v>
@@ -28861,7 +28834,7 @@
         <v>14</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="E490" s="9" t="s">
         <v>469</v>
@@ -28896,7 +28869,7 @@
         <v>15</v>
       </c>
       <c r="D491" s="9" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="E491" s="9" t="s">
         <v>470</v>
@@ -28931,7 +28904,7 @@
         <v>16</v>
       </c>
       <c r="D492" s="9" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E492" s="9" t="s">
         <v>472</v>
@@ -28972,7 +28945,7 @@
         <v>17</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="E493" s="9" t="s">
         <v>473</v>
@@ -29013,7 +28986,7 @@
         <v>18</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="E494" s="9" t="s">
         <v>474</v>
@@ -29048,7 +29021,7 @@
         <v>19</v>
       </c>
       <c r="D495" s="9" t="s">
-        <v>2547</v>
+        <v>2537</v>
       </c>
       <c r="E495" s="9" t="s">
         <v>475</v>
@@ -29083,7 +29056,7 @@
         <v>20</v>
       </c>
       <c r="D496" s="9" t="s">
-        <v>2556</v>
+        <v>2572</v>
       </c>
       <c r="E496" s="9" t="s">
         <v>1196</v>
@@ -29124,7 +29097,7 @@
         <v>21</v>
       </c>
       <c r="D497" s="9" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="E497" s="9" t="s">
         <v>478</v>
@@ -29165,7 +29138,7 @@
         <v>22</v>
       </c>
       <c r="D498" s="9" t="s">
-        <v>2557</v>
+        <v>2545</v>
       </c>
       <c r="E498" s="9" t="s">
         <v>479</v>
@@ -29200,7 +29173,7 @@
         <v>23</v>
       </c>
       <c r="D499" s="9" t="s">
-        <v>2536</v>
+        <v>2569</v>
       </c>
       <c r="E499" s="9" t="s">
         <v>1199</v>
@@ -29241,7 +29214,7 @@
         <v>24</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>2537</v>
+        <v>2570</v>
       </c>
       <c r="E500" s="9" t="s">
         <v>1200</v>
@@ -29276,7 +29249,7 @@
         <v>25</v>
       </c>
       <c r="D501" s="9" t="s">
-        <v>2588</v>
+        <v>2567</v>
       </c>
       <c r="E501" s="9" t="s">
         <v>44</v>
@@ -29311,7 +29284,7 @@
         <v>26</v>
       </c>
       <c r="D502" s="9" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E502" s="9" t="s">
         <v>480</v>
@@ -29349,7 +29322,7 @@
         <v>27</v>
       </c>
       <c r="D503" s="9" t="s">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="E503" s="9" t="s">
         <v>1204</v>
@@ -29387,7 +29360,7 @@
         <v>28</v>
       </c>
       <c r="D504" s="9" t="s">
-        <v>2583</v>
+        <v>2562</v>
       </c>
       <c r="E504" s="9" t="s">
         <v>481</v>
@@ -29422,7 +29395,7 @@
         <v>29</v>
       </c>
       <c r="D505" s="9" t="s">
-        <v>2585</v>
+        <v>2564</v>
       </c>
       <c r="E505" s="9" t="s">
         <v>1209</v>
@@ -29457,7 +29430,7 @@
         <v>30</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>2586</v>
+        <v>2565</v>
       </c>
       <c r="E506" s="9" t="s">
         <v>482</v>
@@ -29492,7 +29465,7 @@
         <v>31</v>
       </c>
       <c r="D507" s="9" t="s">
-        <v>2587</v>
+        <v>2566</v>
       </c>
       <c r="E507" s="9" t="s">
         <v>483</v>
@@ -29527,7 +29500,7 @@
         <v>32</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>2538</v>
+        <v>2578</v>
       </c>
       <c r="E508" s="9" t="s">
         <v>484</v>
@@ -29565,7 +29538,7 @@
         <v>33</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>2539</v>
+        <v>2579</v>
       </c>
       <c r="E509" s="9" t="s">
         <v>485</v>
@@ -29600,7 +29573,7 @@
         <v>34</v>
       </c>
       <c r="D510" s="9" t="s">
-        <v>2540</v>
+        <v>2580</v>
       </c>
       <c r="E510" s="9" t="s">
         <v>487</v>
@@ -30171,7 +30144,7 @@
         <v>10</v>
       </c>
       <c r="D527" s="9" t="s">
-        <v>2579</v>
+        <v>2558</v>
       </c>
       <c r="E527" s="9" t="s">
         <v>47</v>
@@ -30594,7 +30567,7 @@
         <v>4</v>
       </c>
       <c r="D539" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="E539" s="9" t="s">
         <v>442</v>

--- a/import-files/sendig-3-0.xlsx
+++ b/import-files/sendig-3-0.xlsx
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7490" uniqueCount="2583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7490" uniqueCount="2580">
   <si>
     <t>mms:context</t>
   </si>
@@ -6931,15 +6931,6 @@
   </si>
   <si>
     <t>sendig-3-0:Section.POOLDEF.002</t>
-  </si>
-  <si>
-    <t>sendig-3-0:Column.MA.MALOC</t>
-  </si>
-  <si>
-    <t>sendig-3-0:Column.MI.MISTRESN</t>
-  </si>
-  <si>
-    <t>sendig-3-0:Column.MI.MISTRESU</t>
   </si>
   <si>
     <t>sendig-3-0:Assumption.DM.001.001</t>
@@ -10126,7 +10117,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1578</v>
@@ -10149,7 +10140,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1578</v>
@@ -10172,7 +10163,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1578</v>
@@ -10195,7 +10186,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1579</v>
@@ -10218,7 +10209,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1580</v>
@@ -10241,7 +10232,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1581</v>
@@ -10264,7 +10255,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1581</v>
@@ -10287,7 +10278,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1581</v>
@@ -10310,7 +10301,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1581</v>
@@ -10333,7 +10324,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1581</v>
@@ -10356,7 +10347,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1581</v>
@@ -10379,7 +10370,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1581</v>
@@ -10402,7 +10393,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1581</v>
@@ -10425,7 +10416,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1581</v>
@@ -10448,7 +10439,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1581</v>
@@ -10471,7 +10462,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1581</v>
@@ -10494,7 +10485,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1581</v>
@@ -10517,7 +10508,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1581</v>
@@ -10540,7 +10531,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1581</v>
@@ -10563,7 +10554,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1581</v>
@@ -10586,7 +10577,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1581</v>
@@ -10609,7 +10600,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1583</v>
@@ -10632,7 +10623,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1583</v>
@@ -10655,7 +10646,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1583</v>
@@ -10678,7 +10669,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1583</v>
@@ -10701,7 +10692,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1584</v>
@@ -10721,7 +10712,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1584</v>
@@ -10741,7 +10732,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1584</v>
@@ -10801,7 +10792,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -10810,7 +10801,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -10851,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>27</v>
@@ -10886,7 +10877,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>30</v>
@@ -10924,7 +10915,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>32</v>
@@ -10991,7 +10982,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>151</v>
@@ -11029,7 +11020,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>153</v>
@@ -11481,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>27</v>
@@ -11516,7 +11507,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>30</v>
@@ -11586,7 +11577,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>32</v>
@@ -11621,7 +11612,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>136</v>
@@ -11816,7 +11807,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>146</v>
@@ -11854,7 +11845,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>574</v>
@@ -11889,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>27</v>
@@ -11924,7 +11915,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>30</v>
@@ -11962,7 +11953,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>32</v>
@@ -11997,7 +11988,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>399</v>
@@ -12096,7 +12087,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>404</v>
@@ -12134,7 +12125,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>407</v>
@@ -12204,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>27</v>
@@ -12239,7 +12230,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>30</v>
@@ -12277,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>32</v>
@@ -12344,7 +12335,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>225</v>
@@ -12379,7 +12370,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>226</v>
@@ -12414,7 +12405,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>228</v>
@@ -12449,7 +12440,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>229</v>
@@ -12484,7 +12475,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>230</v>
@@ -12525,7 +12516,7 @@
         <v>10</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>231</v>
@@ -12566,7 +12557,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>233</v>
@@ -12607,7 +12598,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>234</v>
@@ -12648,7 +12639,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>235</v>
@@ -12683,7 +12674,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>236</v>
@@ -12750,7 +12741,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>237</v>
@@ -12785,7 +12776,7 @@
         <v>17</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>238</v>
@@ -12820,7 +12811,7 @@
         <v>18</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>239</v>
@@ -12861,7 +12852,7 @@
         <v>19</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>240</v>
@@ -12896,7 +12887,7 @@
         <v>20</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>242</v>
@@ -12934,7 +12925,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>244</v>
@@ -12972,7 +12963,7 @@
         <v>22</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>246</v>
@@ -13007,7 +12998,7 @@
         <v>23</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>248</v>
@@ -13042,7 +13033,7 @@
         <v>24</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>250</v>
@@ -13080,7 +13071,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>252</v>
@@ -13115,7 +13106,7 @@
         <v>26</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>253</v>
@@ -13150,7 +13141,7 @@
         <v>27</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>255</v>
@@ -13188,7 +13179,7 @@
         <v>28</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>256</v>
@@ -13223,7 +13214,7 @@
         <v>29</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>609</v>
@@ -13261,7 +13252,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>27</v>
@@ -13296,7 +13287,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>30</v>
@@ -13334,7 +13325,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>32</v>
@@ -13369,7 +13360,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>173</v>
@@ -13404,7 +13395,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>174</v>
@@ -13439,7 +13430,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>176</v>
@@ -13480,7 +13471,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>44</v>
@@ -13515,7 +13506,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>178</v>
@@ -13553,7 +13544,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>179</v>
@@ -13588,7 +13579,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>27</v>
@@ -13623,7 +13614,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>30</v>
@@ -13661,7 +13652,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>32</v>
@@ -13696,7 +13687,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>620</v>
@@ -13731,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>621</v>
@@ -13772,7 +13763,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>625</v>
@@ -13813,7 +13804,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>629</v>
@@ -13848,7 +13839,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>631</v>
@@ -13889,7 +13880,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>634</v>
@@ -13924,7 +13915,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>637</v>
@@ -13959,7 +13950,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>640</v>
@@ -14000,7 +13991,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>643</v>
@@ -14041,7 +14032,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>646</v>
@@ -14076,7 +14067,7 @@
         <v>14</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>648</v>
@@ -14117,7 +14108,7 @@
         <v>15</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>650</v>
@@ -14158,7 +14149,7 @@
         <v>16</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>652</v>
@@ -14199,7 +14190,7 @@
         <v>17</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>655</v>
@@ -14234,7 +14225,7 @@
         <v>18</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>44</v>
@@ -14269,7 +14260,7 @@
         <v>19</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>660</v>
@@ -14307,7 +14298,7 @@
         <v>20</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>663</v>
@@ -14342,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>27</v>
@@ -14377,7 +14368,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>30</v>
@@ -14415,7 +14406,7 @@
         <v>3</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>32</v>
@@ -14450,7 +14441,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>666</v>
@@ -14485,7 +14476,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>667</v>
@@ -14526,7 +14517,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>670</v>
@@ -14567,7 +14558,7 @@
         <v>7</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>673</v>
@@ -14602,7 +14593,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>675</v>
@@ -14643,7 +14634,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>676</v>
@@ -14678,7 +14669,7 @@
         <v>10</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>678</v>
@@ -14713,7 +14704,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>680</v>
@@ -14754,7 +14745,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>682</v>
@@ -14795,7 +14786,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>685</v>
@@ -14830,7 +14821,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>687</v>
@@ -14871,7 +14862,7 @@
         <v>15</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>688</v>
@@ -14906,7 +14897,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>690</v>
@@ -14944,7 +14935,7 @@
         <v>17</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>692</v>
@@ -14982,7 +14973,7 @@
         <v>18</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>695</v>
@@ -15017,7 +15008,7 @@
         <v>19</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>697</v>
@@ -15052,7 +15043,7 @@
         <v>20</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>700</v>
@@ -15090,7 +15081,7 @@
         <v>21</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>702</v>
@@ -15125,7 +15116,7 @@
         <v>22</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>704</v>
@@ -15163,7 +15154,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>27</v>
@@ -15198,7 +15189,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>30</v>
@@ -15236,7 +15227,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>32</v>
@@ -15303,7 +15294,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>707</v>
@@ -15338,7 +15329,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>708</v>
@@ -15373,7 +15364,7 @@
         <v>7</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>711</v>
@@ -15408,7 +15399,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>714</v>
@@ -15443,7 +15434,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>716</v>
@@ -15478,7 +15469,7 @@
         <v>10</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>718</v>
@@ -15519,7 +15510,7 @@
         <v>11</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>722</v>
@@ -15554,7 +15545,7 @@
         <v>12</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>725</v>
@@ -15595,7 +15586,7 @@
         <v>13</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>728</v>
@@ -15630,7 +15621,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>730</v>
@@ -15665,7 +15656,7 @@
         <v>15</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>732</v>
@@ -15700,7 +15691,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>734</v>
@@ -15741,7 +15732,7 @@
         <v>17</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>736</v>
@@ -15776,7 +15767,7 @@
         <v>18</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>738</v>
@@ -15811,7 +15802,7 @@
         <v>19</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>741</v>
@@ -15846,7 +15837,7 @@
         <v>20</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>743</v>
@@ -15881,7 +15872,7 @@
         <v>21</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>745</v>
@@ -15922,7 +15913,7 @@
         <v>22</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>746</v>
@@ -15957,7 +15948,7 @@
         <v>23</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>44</v>
@@ -15992,7 +15983,7 @@
         <v>24</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>748</v>
@@ -16030,7 +16021,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>750</v>
@@ -16065,7 +16056,7 @@
         <v>26</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>753</v>
@@ -16100,7 +16091,7 @@
         <v>27</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>755</v>
@@ -16135,7 +16126,7 @@
         <v>28</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>756</v>
@@ -16173,7 +16164,7 @@
         <v>29</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>758</v>
@@ -16208,7 +16199,7 @@
         <v>30</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>760</v>
@@ -16246,7 +16237,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>27</v>
@@ -16281,7 +16272,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>30</v>
@@ -16319,7 +16310,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>32</v>
@@ -16354,7 +16345,7 @@
         <v>4</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>762</v>
@@ -16389,7 +16380,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>763</v>
@@ -16430,7 +16421,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>767</v>
@@ -16471,7 +16462,7 @@
         <v>7</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>771</v>
@@ -16506,7 +16497,7 @@
         <v>8</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>773</v>
@@ -16541,7 +16532,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>775</v>
@@ -16576,7 +16567,7 @@
         <v>10</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>777</v>
@@ -16611,7 +16602,7 @@
         <v>11</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>779</v>
@@ -16649,7 +16640,7 @@
         <v>12</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>782</v>
@@ -16684,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>27</v>
@@ -16719,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>30</v>
@@ -16757,7 +16748,7 @@
         <v>3</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>32</v>
@@ -16792,7 +16783,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>180</v>
@@ -16827,7 +16818,7 @@
         <v>5</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>181</v>
@@ -16862,7 +16853,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>182</v>
@@ -16897,7 +16888,7 @@
         <v>7</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>183</v>
@@ -16932,7 +16923,7 @@
         <v>8</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>184</v>
@@ -16973,7 +16964,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>187</v>
@@ -17014,7 +17005,7 @@
         <v>10</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>190</v>
@@ -17055,7 +17046,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>192</v>
@@ -17096,7 +17087,7 @@
         <v>12</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>195</v>
@@ -17131,7 +17122,7 @@
         <v>13</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>196</v>
@@ -17172,7 +17163,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>197</v>
@@ -17213,7 +17204,7 @@
         <v>15</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>199</v>
@@ -17248,7 +17239,7 @@
         <v>16</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>201</v>
@@ -17289,7 +17280,7 @@
         <v>17</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>202</v>
@@ -17330,7 +17321,7 @@
         <v>18</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>203</v>
@@ -17365,7 +17356,7 @@
         <v>19</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>204</v>
@@ -17400,7 +17391,7 @@
         <v>20</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>206</v>
@@ -17435,7 +17426,7 @@
         <v>21</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>796</v>
@@ -17476,7 +17467,7 @@
         <v>22</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>209</v>
@@ -17517,7 +17508,7 @@
         <v>23</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>801</v>
@@ -17558,7 +17549,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>212</v>
@@ -17599,7 +17590,7 @@
         <v>25</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>213</v>
@@ -17640,7 +17631,7 @@
         <v>26</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>214</v>
@@ -17675,7 +17666,7 @@
         <v>27</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>806</v>
@@ -17716,7 +17707,7 @@
         <v>28</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>807</v>
@@ -17751,7 +17742,7 @@
         <v>29</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>44</v>
@@ -17786,7 +17777,7 @@
         <v>30</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>215</v>
@@ -17824,7 +17815,7 @@
         <v>31</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>810</v>
@@ -17862,7 +17853,7 @@
         <v>32</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>217</v>
@@ -17897,7 +17888,7 @@
         <v>33</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>815</v>
@@ -17932,7 +17923,7 @@
         <v>34</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>218</v>
@@ -17967,7 +17958,7 @@
         <v>35</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>219</v>
@@ -18002,7 +17993,7 @@
         <v>36</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>221</v>
@@ -18040,7 +18031,7 @@
         <v>37</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>222</v>
@@ -18075,7 +18066,7 @@
         <v>38</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>223</v>
@@ -18113,7 +18104,7 @@
         <v>39</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>821</v>
@@ -18151,7 +18142,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>27</v>
@@ -18186,7 +18177,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>30</v>
@@ -18224,7 +18215,7 @@
         <v>3</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>32</v>
@@ -18291,7 +18282,7 @@
         <v>5</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>825</v>
@@ -18326,7 +18317,7 @@
         <v>6</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>826</v>
@@ -18361,7 +18352,7 @@
         <v>7</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>827</v>
@@ -18402,7 +18393,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>831</v>
@@ -18443,7 +18434,7 @@
         <v>9</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>835</v>
@@ -18478,7 +18469,7 @@
         <v>10</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>836</v>
@@ -18519,7 +18510,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>837</v>
@@ -18554,7 +18545,7 @@
         <v>12</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>839</v>
@@ -18589,7 +18580,7 @@
         <v>13</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>841</v>
@@ -18630,7 +18621,7 @@
         <v>14</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>843</v>
@@ -18671,7 +18662,7 @@
         <v>15</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>845</v>
@@ -18706,7 +18697,7 @@
         <v>16</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E217" s="9" t="s">
         <v>847</v>
@@ -18747,7 +18738,7 @@
         <v>17</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E218" s="9" t="s">
         <v>848</v>
@@ -18782,7 +18773,7 @@
         <v>18</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>850</v>
@@ -18820,7 +18811,7 @@
         <v>19</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E220" s="9" t="s">
         <v>853</v>
@@ -18858,7 +18849,7 @@
         <v>20</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E221" s="9" t="s">
         <v>855</v>
@@ -18893,7 +18884,7 @@
         <v>21</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E222" s="9" t="s">
         <v>857</v>
@@ -18928,7 +18919,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E223" s="9" t="s">
         <v>27</v>
@@ -18963,7 +18954,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E224" s="9" t="s">
         <v>30</v>
@@ -19001,7 +18992,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>32</v>
@@ -19068,7 +19059,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E227" s="9" t="s">
         <v>257</v>
@@ -19103,7 +19094,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>258</v>
@@ -19138,7 +19129,7 @@
         <v>7</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>259</v>
@@ -19173,7 +19164,7 @@
         <v>8</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>260</v>
@@ -19208,7 +19199,7 @@
         <v>9</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E231" s="9" t="s">
         <v>261</v>
@@ -19249,7 +19240,7 @@
         <v>10</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E232" s="9" t="s">
         <v>264</v>
@@ -19290,7 +19281,7 @@
         <v>11</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="E233" s="9" t="s">
         <v>267</v>
@@ -19325,7 +19316,7 @@
         <v>12</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>269</v>
@@ -19360,7 +19351,7 @@
         <v>13</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>271</v>
@@ -19395,7 +19386,7 @@
         <v>14</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E236" s="9" t="s">
         <v>273</v>
@@ -19436,7 +19427,7 @@
         <v>15</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>274</v>
@@ -19471,7 +19462,7 @@
         <v>16</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="E238" s="9" t="s">
         <v>275</v>
@@ -19506,7 +19497,7 @@
         <v>17</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>276</v>
@@ -19541,7 +19532,7 @@
         <v>18</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E240" s="9" t="s">
         <v>277</v>
@@ -19576,7 +19567,7 @@
         <v>19</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E241" s="9" t="s">
         <v>278</v>
@@ -19617,7 +19608,7 @@
         <v>20</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>279</v>
@@ -19652,7 +19643,7 @@
         <v>21</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>280</v>
@@ -19687,7 +19678,7 @@
         <v>22</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>282</v>
@@ -19722,7 +19713,7 @@
         <v>23</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>283</v>
@@ -19757,7 +19748,7 @@
         <v>24</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E246" s="9" t="s">
         <v>285</v>
@@ -19798,7 +19789,7 @@
         <v>25</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E247" s="9" t="s">
         <v>286</v>
@@ -19833,7 +19824,7 @@
         <v>26</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="E248" s="9" t="s">
         <v>287</v>
@@ -19868,7 +19859,7 @@
         <v>27</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="E249" s="9" t="s">
         <v>288</v>
@@ -19909,7 +19900,7 @@
         <v>28</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>885</v>
@@ -19944,7 +19935,7 @@
         <v>29</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="E251" s="9" t="s">
         <v>290</v>
@@ -19979,7 +19970,7 @@
         <v>30</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="E252" s="9" t="s">
         <v>889</v>
@@ -20020,7 +20011,7 @@
         <v>31</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>892</v>
@@ -20055,7 +20046,7 @@
         <v>32</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>894</v>
@@ -20096,7 +20087,7 @@
         <v>33</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="E255" s="9" t="s">
         <v>898</v>
@@ -20137,7 +20128,7 @@
         <v>34</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="E256" s="9" t="s">
         <v>902</v>
@@ -20178,7 +20169,7 @@
         <v>35</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="E257" s="9" t="s">
         <v>291</v>
@@ -20213,7 +20204,7 @@
         <v>36</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="E258" s="9" t="s">
         <v>292</v>
@@ -20254,7 +20245,7 @@
         <v>37</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="E259" s="9" t="s">
         <v>293</v>
@@ -20295,7 +20286,7 @@
         <v>38</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="E260" s="9" t="s">
         <v>294</v>
@@ -20336,7 +20327,7 @@
         <v>39</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="E261" s="9" t="s">
         <v>295</v>
@@ -20371,7 +20362,7 @@
         <v>40</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="E262" s="9" t="s">
         <v>296</v>
@@ -20406,7 +20397,7 @@
         <v>41</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E263" s="9" t="s">
         <v>911</v>
@@ -20447,7 +20438,7 @@
         <v>42</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>912</v>
@@ -20482,7 +20473,7 @@
         <v>43</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>44</v>
@@ -20517,7 +20508,7 @@
         <v>44</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E266" s="9" t="s">
         <v>297</v>
@@ -20555,7 +20546,7 @@
         <v>45</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E267" s="9" t="s">
         <v>299</v>
@@ -20593,7 +20584,7 @@
         <v>46</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E268" s="9" t="s">
         <v>301</v>
@@ -20628,7 +20619,7 @@
         <v>47</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E269" s="9" t="s">
         <v>917</v>
@@ -20663,7 +20654,7 @@
         <v>48</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="E270" s="9" t="s">
         <v>303</v>
@@ -20698,7 +20689,7 @@
         <v>49</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="E271" s="9" t="s">
         <v>304</v>
@@ -20733,7 +20724,7 @@
         <v>50</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E272" s="9" t="s">
         <v>306</v>
@@ -20771,7 +20762,7 @@
         <v>51</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E273" s="9" t="s">
         <v>307</v>
@@ -20806,7 +20797,7 @@
         <v>52</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E274" s="9" t="s">
         <v>308</v>
@@ -20844,7 +20835,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E275" s="9" t="s">
         <v>27</v>
@@ -20879,7 +20870,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E276" s="9" t="s">
         <v>30</v>
@@ -20917,7 +20908,7 @@
         <v>3</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E277" s="9" t="s">
         <v>32</v>
@@ -20952,7 +20943,7 @@
         <v>4</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E278" s="9" t="s">
         <v>924</v>
@@ -20987,7 +20978,7 @@
         <v>5</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E279" s="9" t="s">
         <v>925</v>
@@ -21022,7 +21013,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="E280" s="9" t="s">
         <v>927</v>
@@ -21057,7 +21048,7 @@
         <v>7</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E281" s="9" t="s">
         <v>930</v>
@@ -21092,7 +21083,7 @@
         <v>8</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>932</v>
@@ -21133,7 +21124,7 @@
         <v>9</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E283" s="9" t="s">
         <v>936</v>
@@ -21174,7 +21165,7 @@
         <v>10</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="E284" s="9" t="s">
         <v>940</v>
@@ -21215,7 +21206,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E285" s="9" t="s">
         <v>941</v>
@@ -21250,7 +21241,7 @@
         <v>12</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E286" s="9" t="s">
         <v>943</v>
@@ -21285,7 +21276,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E287" s="9" t="s">
         <v>945</v>
@@ -21326,7 +21317,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E288" s="9" t="s">
         <v>947</v>
@@ -21361,7 +21352,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>949</v>
@@ -21396,7 +21387,7 @@
         <v>16</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>952</v>
@@ -21437,7 +21428,7 @@
         <v>17</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>954</v>
@@ -21472,7 +21463,7 @@
         <v>18</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="E292" s="9" t="s">
         <v>955</v>
@@ -21507,7 +21498,7 @@
         <v>19</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>957</v>
@@ -21548,7 +21539,7 @@
         <v>20</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>958</v>
@@ -21589,7 +21580,7 @@
         <v>21</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="E295" s="9" t="s">
         <v>959</v>
@@ -21630,7 +21621,7 @@
         <v>22</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="E296" s="9" t="s">
         <v>961</v>
@@ -21671,7 +21662,7 @@
         <v>23</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="E297" s="9" t="s">
         <v>962</v>
@@ -21706,7 +21697,7 @@
         <v>24</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="E298" s="9" t="s">
         <v>964</v>
@@ -21747,7 +21738,7 @@
         <v>25</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="E299" s="9" t="s">
         <v>966</v>
@@ -21788,7 +21779,7 @@
         <v>26</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E300" s="9" t="s">
         <v>968</v>
@@ -21826,7 +21817,7 @@
         <v>27</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>970</v>
@@ -21861,7 +21852,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E302" s="9" t="s">
         <v>27</v>
@@ -21896,7 +21887,7 @@
         <v>2</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E303" s="9" t="s">
         <v>30</v>
@@ -21934,7 +21925,7 @@
         <v>3</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E304" s="9" t="s">
         <v>32</v>
@@ -21969,7 +21960,7 @@
         <v>4</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E305" s="9" t="s">
         <v>972</v>
@@ -22004,7 +21995,7 @@
         <v>5</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E306" s="9" t="s">
         <v>973</v>
@@ -22039,7 +22030,7 @@
         <v>6</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="E307" s="9" t="s">
         <v>974</v>
@@ -22074,7 +22065,7 @@
         <v>7</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E308" s="9" t="s">
         <v>976</v>
@@ -22109,7 +22100,7 @@
         <v>8</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E309" s="9" t="s">
         <v>977</v>
@@ -22150,7 +22141,7 @@
         <v>9</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E310" s="9" t="s">
         <v>981</v>
@@ -22191,7 +22182,7 @@
         <v>10</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="E311" s="9" t="s">
         <v>985</v>
@@ -22232,7 +22223,7 @@
         <v>11</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E312" s="9" t="s">
         <v>986</v>
@@ -22267,7 +22258,7 @@
         <v>12</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E313" s="9" t="s">
         <v>988</v>
@@ -22302,7 +22293,7 @@
         <v>13</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="E314" s="9" t="s">
         <v>990</v>
@@ -22343,7 +22334,7 @@
         <v>14</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E315" s="9" t="s">
         <v>993</v>
@@ -22384,7 +22375,7 @@
         <v>15</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E316" s="9" t="s">
         <v>994</v>
@@ -22419,7 +22410,7 @@
         <v>16</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="E317" s="9" t="s">
         <v>996</v>
@@ -22454,7 +22445,7 @@
         <v>17</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="E318" s="9" t="s">
         <v>998</v>
@@ -22495,7 +22486,7 @@
         <v>18</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E319" s="9" t="s">
         <v>1000</v>
@@ -22530,7 +22521,7 @@
         <v>19</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="E320" s="9" t="s">
         <v>1002</v>
@@ -22565,7 +22556,7 @@
         <v>20</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="E321" s="9" t="s">
         <v>1003</v>
@@ -22606,7 +22597,7 @@
         <v>21</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="E322" s="9" t="s">
         <v>1004</v>
@@ -22641,7 +22632,7 @@
         <v>22</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="E323" s="9" t="s">
         <v>1006</v>
@@ -22682,7 +22673,7 @@
         <v>23</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="E324" s="9" t="s">
         <v>1007</v>
@@ -22723,7 +22714,7 @@
         <v>24</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="E325" s="9" t="s">
         <v>1008</v>
@@ -22758,7 +22749,7 @@
         <v>25</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="E326" s="9" t="s">
         <v>1010</v>
@@ -22799,7 +22790,7 @@
         <v>26</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="E327" s="9" t="s">
         <v>1012</v>
@@ -22840,7 +22831,7 @@
         <v>27</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E328" s="9" t="s">
         <v>1014</v>
@@ -22878,7 +22869,7 @@
         <v>28</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E329" s="9" t="s">
         <v>1016</v>
@@ -22913,7 +22904,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E330" s="9" t="s">
         <v>27</v>
@@ -22948,7 +22939,7 @@
         <v>2</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E331" s="9" t="s">
         <v>30</v>
@@ -22986,7 +22977,7 @@
         <v>3</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E332" s="9" t="s">
         <v>32</v>
@@ -23021,7 +23012,7 @@
         <v>4</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E333" s="9" t="s">
         <v>1017</v>
@@ -23056,7 +23047,7 @@
         <v>5</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>1018</v>
@@ -23097,7 +23088,7 @@
         <v>6</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E335" s="9" t="s">
         <v>1021</v>
@@ -23138,7 +23129,7 @@
         <v>7</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E336" s="9" t="s">
         <v>1024</v>
@@ -23173,7 +23164,7 @@
         <v>8</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E337" s="9" t="s">
         <v>1025</v>
@@ -23214,7 +23205,7 @@
         <v>9</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E338" s="9" t="s">
         <v>1026</v>
@@ -23249,7 +23240,7 @@
         <v>10</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E339" s="9" t="s">
         <v>1028</v>
@@ -23284,7 +23275,7 @@
         <v>11</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E340" s="9" t="s">
         <v>1030</v>
@@ -23325,7 +23316,7 @@
         <v>12</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E341" s="9" t="s">
         <v>1032</v>
@@ -23366,7 +23357,7 @@
         <v>13</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E342" s="9" t="s">
         <v>1035</v>
@@ -23401,7 +23392,7 @@
         <v>14</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="E343" s="9" t="s">
         <v>1037</v>
@@ -23442,7 +23433,7 @@
         <v>15</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E344" s="9" t="s">
         <v>1039</v>
@@ -23477,7 +23468,7 @@
         <v>16</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="E345" s="9" t="s">
         <v>1041</v>
@@ -23512,7 +23503,7 @@
         <v>17</v>
       </c>
       <c r="D346" s="9" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>1043</v>
@@ -23553,7 +23544,7 @@
         <v>18</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="E347" s="9" t="s">
         <v>1044</v>
@@ -23594,7 +23585,7 @@
         <v>19</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="E348" s="9" t="s">
         <v>1045</v>
@@ -23635,7 +23626,7 @@
         <v>20</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="E349" s="9" t="s">
         <v>1046</v>
@@ -23676,7 +23667,7 @@
         <v>21</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E350" s="9" t="s">
         <v>1047</v>
@@ -23717,7 +23708,7 @@
         <v>22</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E351" s="9" t="s">
         <v>1048</v>
@@ -23752,7 +23743,7 @@
         <v>23</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E352" s="9" t="s">
         <v>1050</v>
@@ -23790,7 +23781,7 @@
         <v>24</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E353" s="9" t="s">
         <v>1053</v>
@@ -23825,7 +23816,7 @@
         <v>1</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E354" s="9" t="s">
         <v>27</v>
@@ -23860,7 +23851,7 @@
         <v>2</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E355" s="9" t="s">
         <v>30</v>
@@ -23898,7 +23889,7 @@
         <v>3</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E356" s="9" t="s">
         <v>32</v>
@@ -23933,7 +23924,7 @@
         <v>4</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E357" s="9" t="s">
         <v>1056</v>
@@ -23968,7 +23959,7 @@
         <v>5</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E358" s="9" t="s">
         <v>1057</v>
@@ -24003,7 +23994,7 @@
         <v>6</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E359" s="9" t="s">
         <v>1058</v>
@@ -24038,7 +24029,7 @@
         <v>7</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E360" s="9" t="s">
         <v>1059</v>
@@ -24079,7 +24070,7 @@
         <v>8</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E361" s="9" t="s">
         <v>1062</v>
@@ -24120,7 +24111,7 @@
         <v>9</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E362" s="9" t="s">
         <v>1065</v>
@@ -24155,7 +24146,7 @@
         <v>10</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E363" s="9" t="s">
         <v>1067</v>
@@ -24196,7 +24187,7 @@
         <v>11</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E364" s="9" t="s">
         <v>1069</v>
@@ -24231,7 +24222,7 @@
         <v>12</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E365" s="9" t="s">
         <v>1071</v>
@@ -24266,7 +24257,7 @@
         <v>13</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E366" s="9" t="s">
         <v>1073</v>
@@ -24307,7 +24298,7 @@
         <v>14</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E367" s="9" t="s">
         <v>1075</v>
@@ -24348,7 +24339,7 @@
         <v>15</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E368" s="9" t="s">
         <v>1077</v>
@@ -24383,7 +24374,7 @@
         <v>16</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="E369" s="9" t="s">
         <v>1079</v>
@@ -24418,7 +24409,7 @@
         <v>17</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="E370" s="9" t="s">
         <v>1081</v>
@@ -24453,7 +24444,7 @@
         <v>18</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E371" s="9" t="s">
         <v>44</v>
@@ -24488,7 +24479,7 @@
         <v>19</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E372" s="9" t="s">
         <v>1083</v>
@@ -24526,7 +24517,7 @@
         <v>20</v>
       </c>
       <c r="D373" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E373" s="9" t="s">
         <v>1085</v>
@@ -24561,7 +24552,7 @@
         <v>1</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E374" s="9" t="s">
         <v>27</v>
@@ -24596,7 +24587,7 @@
         <v>2</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E375" s="9" t="s">
         <v>30</v>
@@ -24634,7 +24625,7 @@
         <v>3</v>
       </c>
       <c r="D376" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E376" s="9" t="s">
         <v>32</v>
@@ -24701,7 +24692,7 @@
         <v>5</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E378" s="9" t="s">
         <v>311</v>
@@ -24736,7 +24727,7 @@
         <v>6</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E379" s="9" t="s">
         <v>312</v>
@@ -24771,7 +24762,7 @@
         <v>7</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="E380" s="9" t="s">
         <v>313</v>
@@ -24806,7 +24797,7 @@
         <v>8</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E381" s="9" t="s">
         <v>314</v>
@@ -24841,7 +24832,7 @@
         <v>9</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E382" s="9" t="s">
         <v>316</v>
@@ -24876,7 +24867,7 @@
         <v>10</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E383" s="9" t="s">
         <v>317</v>
@@ -24911,7 +24902,7 @@
         <v>11</v>
       </c>
       <c r="D384" s="9" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="E384" s="9" t="s">
         <v>318</v>
@@ -24946,7 +24937,7 @@
         <v>12</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="E385" s="9" t="s">
         <v>321</v>
@@ -24981,7 +24972,7 @@
         <v>13</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E386" s="9" t="s">
         <v>324</v>
@@ -25016,7 +25007,7 @@
         <v>14</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E387" s="9" t="s">
         <v>325</v>
@@ -25057,7 +25048,7 @@
         <v>15</v>
       </c>
       <c r="D388" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E388" s="9" t="s">
         <v>326</v>
@@ -25092,7 +25083,7 @@
         <v>16</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E389" s="9" t="s">
         <v>327</v>
@@ -25127,7 +25118,7 @@
         <v>17</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E390" s="9" t="s">
         <v>328</v>
@@ -25168,7 +25159,7 @@
         <v>18</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E391" s="9" t="s">
         <v>330</v>
@@ -25209,7 +25200,7 @@
         <v>19</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E392" s="9" t="s">
         <v>331</v>
@@ -25244,7 +25235,7 @@
         <v>20</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="E393" s="9" t="s">
         <v>332</v>
@@ -25279,7 +25270,7 @@
         <v>21</v>
       </c>
       <c r="D394" s="9" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="E394" s="9" t="s">
         <v>333</v>
@@ -25320,7 +25311,7 @@
         <v>22</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="E395" s="9" t="s">
         <v>334</v>
@@ -25355,7 +25346,7 @@
         <v>23</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="E396" s="9" t="s">
         <v>335</v>
@@ -25390,7 +25381,7 @@
         <v>24</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="E397" s="9" t="s">
         <v>1100</v>
@@ -25431,7 +25422,7 @@
         <v>25</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="E398" s="9" t="s">
         <v>337</v>
@@ -25472,7 +25463,7 @@
         <v>26</v>
       </c>
       <c r="D399" s="9" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="E399" s="9" t="s">
         <v>338</v>
@@ -25513,7 +25504,7 @@
         <v>27</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="E400" s="9" t="s">
         <v>339</v>
@@ -25548,7 +25539,7 @@
         <v>28</v>
       </c>
       <c r="D401" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E401" s="9" t="s">
         <v>1102</v>
@@ -25589,7 +25580,7 @@
         <v>29</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E402" s="9" t="s">
         <v>1104</v>
@@ -25624,7 +25615,7 @@
         <v>30</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E403" s="9" t="s">
         <v>44</v>
@@ -25659,7 +25650,7 @@
         <v>31</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E404" s="9" t="s">
         <v>341</v>
@@ -25697,7 +25688,7 @@
         <v>32</v>
       </c>
       <c r="D405" s="9" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E405" s="9" t="s">
         <v>342</v>
@@ -25735,7 +25726,7 @@
         <v>33</v>
       </c>
       <c r="D406" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E406" s="9" t="s">
         <v>343</v>
@@ -25770,7 +25761,7 @@
         <v>34</v>
       </c>
       <c r="D407" s="9" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E407" s="9" t="s">
         <v>1111</v>
@@ -25805,7 +25796,7 @@
         <v>35</v>
       </c>
       <c r="D408" s="9" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="E408" s="9" t="s">
         <v>344</v>
@@ -25840,7 +25831,7 @@
         <v>36</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="E409" s="9" t="s">
         <v>345</v>
@@ -25875,7 +25866,7 @@
         <v>37</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E410" s="9" t="s">
         <v>347</v>
@@ -25913,7 +25904,7 @@
         <v>38</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E411" s="9" t="s">
         <v>348</v>
@@ -25948,7 +25939,7 @@
         <v>39</v>
       </c>
       <c r="D412" s="9" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E412" s="9" t="s">
         <v>350</v>
@@ -25986,7 +25977,7 @@
         <v>40</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="E413" s="9" t="s">
         <v>353</v>
@@ -26024,7 +26015,7 @@
         <v>1</v>
       </c>
       <c r="D414" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E414" s="9" t="s">
         <v>27</v>
@@ -26059,7 +26050,7 @@
         <v>2</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E415" s="9" t="s">
         <v>30</v>
@@ -26097,7 +26088,7 @@
         <v>3</v>
       </c>
       <c r="D416" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E416" s="9" t="s">
         <v>32</v>
@@ -26164,7 +26155,7 @@
         <v>5</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E418" s="9" t="s">
         <v>354</v>
@@ -26199,7 +26190,7 @@
         <v>6</v>
       </c>
       <c r="D419" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E419" s="9" t="s">
         <v>355</v>
@@ -26234,7 +26225,7 @@
         <v>7</v>
       </c>
       <c r="D420" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E420" s="9" t="s">
         <v>356</v>
@@ -26275,7 +26266,7 @@
         <v>8</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E421" s="9" t="s">
         <v>358</v>
@@ -26316,7 +26307,7 @@
         <v>9</v>
       </c>
       <c r="D422" s="9" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="E422" s="9" t="s">
         <v>360</v>
@@ -26351,7 +26342,7 @@
         <v>10</v>
       </c>
       <c r="D423" s="9" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="E423" s="9" t="s">
         <v>363</v>
@@ -26386,7 +26377,7 @@
         <v>11</v>
       </c>
       <c r="D424" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E424" s="9" t="s">
         <v>365</v>
@@ -26421,7 +26412,7 @@
         <v>12</v>
       </c>
       <c r="D425" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E425" s="9" t="s">
         <v>366</v>
@@ -26462,7 +26453,7 @@
         <v>13</v>
       </c>
       <c r="D426" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E426" s="9" t="s">
         <v>367</v>
@@ -26497,7 +26488,7 @@
         <v>14</v>
       </c>
       <c r="D427" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E427" s="9" t="s">
         <v>368</v>
@@ -26532,7 +26523,7 @@
         <v>15</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E428" s="9" t="s">
         <v>369</v>
@@ -26573,7 +26564,7 @@
         <v>16</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E429" s="9" t="s">
         <v>371</v>
@@ -26614,7 +26605,7 @@
         <v>17</v>
       </c>
       <c r="D430" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E430" s="9" t="s">
         <v>373</v>
@@ -26649,7 +26640,7 @@
         <v>18</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="E431" s="9" t="s">
         <v>374</v>
@@ -26690,7 +26681,7 @@
         <v>19</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E432" s="9" t="s">
         <v>44</v>
@@ -26725,7 +26716,7 @@
         <v>20</v>
       </c>
       <c r="D433" s="9" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E433" s="9" t="s">
         <v>1129</v>
@@ -26760,7 +26751,7 @@
         <v>21</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E434" s="9" t="s">
         <v>375</v>
@@ -26868,7 +26859,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E437" s="9" t="s">
         <v>27</v>
@@ -26903,7 +26894,7 @@
         <v>2</v>
       </c>
       <c r="D438" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E438" s="9" t="s">
         <v>30</v>
@@ -26941,7 +26932,7 @@
         <v>3</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E439" s="9" t="s">
         <v>32</v>
@@ -26976,7 +26967,7 @@
         <v>4</v>
       </c>
       <c r="D440" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E440" s="9" t="s">
         <v>384</v>
@@ -27011,7 +27002,7 @@
         <v>5</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E441" s="9" t="s">
         <v>385</v>
@@ -27046,7 +27037,7 @@
         <v>6</v>
       </c>
       <c r="D442" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E442" s="9" t="s">
         <v>386</v>
@@ -27087,7 +27078,7 @@
         <v>7</v>
       </c>
       <c r="D443" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E443" s="9" t="s">
         <v>388</v>
@@ -27128,7 +27119,7 @@
         <v>8</v>
       </c>
       <c r="D444" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E444" s="9" t="s">
         <v>390</v>
@@ -27163,7 +27154,7 @@
         <v>9</v>
       </c>
       <c r="D445" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E445" s="9" t="s">
         <v>392</v>
@@ -27204,7 +27195,7 @@
         <v>10</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E446" s="9" t="s">
         <v>393</v>
@@ -27239,7 +27230,7 @@
         <v>11</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E447" s="9" t="s">
         <v>394</v>
@@ -27274,7 +27265,7 @@
         <v>12</v>
       </c>
       <c r="D448" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E448" s="9" t="s">
         <v>395</v>
@@ -27315,7 +27306,7 @@
         <v>13</v>
       </c>
       <c r="D449" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E449" s="9" t="s">
         <v>397</v>
@@ -27353,7 +27344,7 @@
         <v>14</v>
       </c>
       <c r="D450" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E450" s="9" t="s">
         <v>398</v>
@@ -27388,7 +27379,7 @@
         <v>1</v>
       </c>
       <c r="D451" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E451" s="9" t="s">
         <v>27</v>
@@ -27423,7 +27414,7 @@
         <v>2</v>
       </c>
       <c r="D452" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E452" s="9" t="s">
         <v>30</v>
@@ -27461,7 +27452,7 @@
         <v>3</v>
       </c>
       <c r="D453" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E453" s="9" t="s">
         <v>32</v>
@@ -27496,7 +27487,7 @@
         <v>4</v>
       </c>
       <c r="D454" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E454" s="9" t="s">
         <v>1146</v>
@@ -27531,7 +27522,7 @@
         <v>5</v>
       </c>
       <c r="D455" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E455" s="9" t="s">
         <v>1147</v>
@@ -27566,7 +27557,7 @@
         <v>6</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="E456" s="9" t="s">
         <v>1148</v>
@@ -27601,7 +27592,7 @@
         <v>7</v>
       </c>
       <c r="D457" s="9" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E457" s="9" t="s">
         <v>1149</v>
@@ -27636,7 +27627,7 @@
         <v>8</v>
       </c>
       <c r="D458" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E458" s="9" t="s">
         <v>1151</v>
@@ -27677,7 +27668,7 @@
         <v>9</v>
       </c>
       <c r="D459" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E459" s="9" t="s">
         <v>1155</v>
@@ -27718,7 +27709,7 @@
         <v>10</v>
       </c>
       <c r="D460" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E460" s="9" t="s">
         <v>1159</v>
@@ -27753,7 +27744,7 @@
         <v>11</v>
       </c>
       <c r="D461" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E461" s="9" t="s">
         <v>1161</v>
@@ -27794,7 +27785,7 @@
         <v>12</v>
       </c>
       <c r="D462" s="9" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="E462" s="9" t="s">
         <v>1164</v>
@@ -27835,7 +27826,7 @@
         <v>13</v>
       </c>
       <c r="D463" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E463" s="9" t="s">
         <v>1168</v>
@@ -27876,7 +27867,7 @@
         <v>14</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E464" s="9" t="s">
         <v>1170</v>
@@ -27943,7 +27934,7 @@
         <v>16</v>
       </c>
       <c r="D466" s="9" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="E466" s="9" t="s">
         <v>1173</v>
@@ -27984,7 +27975,7 @@
         <v>17</v>
       </c>
       <c r="D467" s="9" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E467" s="9" t="s">
         <v>1175</v>
@@ -28019,7 +28010,7 @@
         <v>18</v>
       </c>
       <c r="D468" s="9" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="E468" s="9" t="s">
         <v>1177</v>
@@ -28054,7 +28045,7 @@
         <v>19</v>
       </c>
       <c r="D469" s="9" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="E469" s="9" t="s">
         <v>1179</v>
@@ -28089,7 +28080,7 @@
         <v>20</v>
       </c>
       <c r="D470" s="9" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="E470" s="9" t="s">
         <v>1181</v>
@@ -28130,7 +28121,7 @@
         <v>21</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="E471" s="9" t="s">
         <v>1182</v>
@@ -28171,7 +28162,7 @@
         <v>22</v>
       </c>
       <c r="D472" s="9" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="E472" s="9" t="s">
         <v>1183</v>
@@ -28206,7 +28197,7 @@
         <v>23</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="E473" s="9" t="s">
         <v>1184</v>
@@ -28247,7 +28238,7 @@
         <v>24</v>
       </c>
       <c r="D474" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E474" s="9" t="s">
         <v>1186</v>
@@ -28285,7 +28276,7 @@
         <v>25</v>
       </c>
       <c r="D475" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E475" s="9" t="s">
         <v>1187</v>
@@ -28320,7 +28311,7 @@
         <v>26</v>
       </c>
       <c r="D476" s="9" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="E476" s="9" t="s">
         <v>1188</v>
@@ -28355,7 +28346,7 @@
         <v>1</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E477" s="9" t="s">
         <v>27</v>
@@ -28390,7 +28381,7 @@
         <v>2</v>
       </c>
       <c r="D478" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E478" s="9" t="s">
         <v>30</v>
@@ -28425,7 +28416,7 @@
         <v>3</v>
       </c>
       <c r="D479" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E479" s="9" t="s">
         <v>32</v>
@@ -28460,7 +28451,7 @@
         <v>4</v>
       </c>
       <c r="D480" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E480" s="9" t="s">
         <v>449</v>
@@ -28495,7 +28486,7 @@
         <v>5</v>
       </c>
       <c r="D481" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E481" s="9" t="s">
         <v>450</v>
@@ -28530,7 +28521,7 @@
         <v>6</v>
       </c>
       <c r="D482" s="9" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E482" s="9" t="s">
         <v>451</v>
@@ -28565,7 +28556,7 @@
         <v>7</v>
       </c>
       <c r="D483" s="9" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E483" s="9" t="s">
         <v>452</v>
@@ -28606,7 +28597,7 @@
         <v>8</v>
       </c>
       <c r="D484" s="9" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E484" s="9" t="s">
         <v>455</v>
@@ -28647,7 +28638,7 @@
         <v>9</v>
       </c>
       <c r="D485" s="9" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="E485" s="9" t="s">
         <v>458</v>
@@ -28682,7 +28673,7 @@
         <v>10</v>
       </c>
       <c r="D486" s="9" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="E486" s="9" t="s">
         <v>460</v>
@@ -28717,7 +28708,7 @@
         <v>11</v>
       </c>
       <c r="D487" s="9" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="E487" s="9" t="s">
         <v>463</v>
@@ -28758,7 +28749,7 @@
         <v>12</v>
       </c>
       <c r="D488" s="9" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E488" s="9" t="s">
         <v>465</v>
@@ -28793,7 +28784,7 @@
         <v>13</v>
       </c>
       <c r="D489" s="9" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="E489" s="9" t="s">
         <v>467</v>
@@ -28834,7 +28825,7 @@
         <v>14</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="E490" s="9" t="s">
         <v>469</v>
@@ -28869,7 +28860,7 @@
         <v>15</v>
       </c>
       <c r="D491" s="9" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="E491" s="9" t="s">
         <v>470</v>
@@ -28904,7 +28895,7 @@
         <v>16</v>
       </c>
       <c r="D492" s="9" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="E492" s="9" t="s">
         <v>472</v>
@@ -28945,7 +28936,7 @@
         <v>17</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="E493" s="9" t="s">
         <v>473</v>
@@ -28986,7 +28977,7 @@
         <v>18</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E494" s="9" t="s">
         <v>474</v>
@@ -29021,7 +29012,7 @@
         <v>19</v>
       </c>
       <c r="D495" s="9" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="E495" s="9" t="s">
         <v>475</v>
@@ -29056,7 +29047,7 @@
         <v>20</v>
       </c>
       <c r="D496" s="9" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="E496" s="9" t="s">
         <v>1196</v>
@@ -29097,7 +29088,7 @@
         <v>21</v>
       </c>
       <c r="D497" s="9" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="E497" s="9" t="s">
         <v>478</v>
@@ -29138,7 +29129,7 @@
         <v>22</v>
       </c>
       <c r="D498" s="9" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="E498" s="9" t="s">
         <v>479</v>
@@ -29173,7 +29164,7 @@
         <v>23</v>
       </c>
       <c r="D499" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E499" s="9" t="s">
         <v>1199</v>
@@ -29214,7 +29205,7 @@
         <v>24</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E500" s="9" t="s">
         <v>1200</v>
@@ -29249,7 +29240,7 @@
         <v>25</v>
       </c>
       <c r="D501" s="9" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E501" s="9" t="s">
         <v>44</v>
@@ -29284,7 +29275,7 @@
         <v>26</v>
       </c>
       <c r="D502" s="9" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E502" s="9" t="s">
         <v>480</v>
@@ -29322,7 +29313,7 @@
         <v>27</v>
       </c>
       <c r="D503" s="9" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E503" s="9" t="s">
         <v>1204</v>
@@ -29360,7 +29351,7 @@
         <v>28</v>
       </c>
       <c r="D504" s="9" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E504" s="9" t="s">
         <v>481</v>
@@ -29395,7 +29386,7 @@
         <v>29</v>
       </c>
       <c r="D505" s="9" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E505" s="9" t="s">
         <v>1209</v>
@@ -29430,7 +29421,7 @@
         <v>30</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="E506" s="9" t="s">
         <v>482</v>
@@ -29465,7 +29456,7 @@
         <v>31</v>
       </c>
       <c r="D507" s="9" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="E507" s="9" t="s">
         <v>483</v>
@@ -29500,7 +29491,7 @@
         <v>32</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E508" s="9" t="s">
         <v>484</v>
@@ -29538,7 +29529,7 @@
         <v>33</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E509" s="9" t="s">
         <v>485</v>
@@ -29573,7 +29564,7 @@
         <v>34</v>
       </c>
       <c r="D510" s="9" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E510" s="9" t="s">
         <v>487</v>
@@ -29611,7 +29602,7 @@
         <v>1</v>
       </c>
       <c r="D511" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E511" s="9" t="s">
         <v>27</v>
@@ -29646,7 +29637,7 @@
         <v>2</v>
       </c>
       <c r="D512" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E512" s="9" t="s">
         <v>30</v>
@@ -29847,7 +29838,7 @@
         <v>1</v>
       </c>
       <c r="D518" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E518" s="9" t="s">
         <v>27</v>
@@ -29882,7 +29873,7 @@
         <v>2</v>
       </c>
       <c r="D519" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E519" s="9" t="s">
         <v>30</v>
@@ -30144,7 +30135,7 @@
         <v>10</v>
       </c>
       <c r="D527" s="9" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="E527" s="9" t="s">
         <v>47</v>
@@ -30153,7 +30144,7 @@
         <v>1226</v>
       </c>
       <c r="G527" s="9" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="I527" s="9" t="s">
         <v>7</v>
@@ -30179,7 +30170,7 @@
         <v>1</v>
       </c>
       <c r="D528" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E528" s="9" t="s">
         <v>27</v>
@@ -30214,7 +30205,7 @@
         <v>2</v>
       </c>
       <c r="D529" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E529" s="9" t="s">
         <v>30</v>
@@ -30316,7 +30307,7 @@
         <v>5</v>
       </c>
       <c r="D532" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E532" s="9" t="s">
         <v>1231</v>
@@ -30459,7 +30450,7 @@
         <v>1</v>
       </c>
       <c r="D536" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E536" s="9" t="s">
         <v>27</v>
@@ -30494,7 +30485,7 @@
         <v>2</v>
       </c>
       <c r="D537" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E537" s="9" t="s">
         <v>30</v>
@@ -30532,7 +30523,7 @@
         <v>3</v>
       </c>
       <c r="D538" s="9" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E538" s="9" t="s">
         <v>440</v>
@@ -30567,7 +30558,7 @@
         <v>4</v>
       </c>
       <c r="D539" s="9" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E539" s="9" t="s">
         <v>442</v>
@@ -30710,7 +30701,7 @@
         <v>1</v>
       </c>
       <c r="D543" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E543" s="9" t="s">
         <v>27</v>
@@ -30777,7 +30768,7 @@
         <v>3</v>
       </c>
       <c r="D545" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E545" s="9" t="s">
         <v>32</v>
@@ -30812,7 +30803,7 @@
         <v>1</v>
       </c>
       <c r="D546" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E546" s="9" t="s">
         <v>27</v>
@@ -30873,7 +30864,7 @@
         <v>3</v>
       </c>
       <c r="D548" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E548" s="9" t="s">
         <v>32</v>
@@ -31053,7 +31044,7 @@
         <v>1</v>
       </c>
       <c r="D554" s="9" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E554" s="9" t="s">
         <v>27</v>
@@ -31114,7 +31105,7 @@
         <v>3</v>
       </c>
       <c r="D556" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E556" s="9" t="s">
         <v>32</v>
@@ -31421,7 +31412,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>1325</v>
@@ -31435,7 +31426,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>1326</v>
@@ -31449,7 +31440,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>1327</v>
@@ -31463,7 +31454,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>1328</v>
@@ -31477,7 +31468,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>1329</v>
@@ -31491,7 +31482,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>1330</v>
@@ -31505,7 +31496,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>529</v>
@@ -31519,7 +31510,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>1331</v>
@@ -31533,7 +31524,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>90</v>
@@ -31547,7 +31538,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>92</v>
@@ -31561,7 +31552,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>1350</v>
@@ -31575,7 +31566,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>1351</v>
@@ -31589,7 +31580,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>40</v>
@@ -31603,7 +31594,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>129</v>
@@ -31617,7 +31608,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>1352</v>
@@ -31631,7 +31622,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>1353</v>
@@ -31645,7 +31636,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>1360</v>
@@ -31659,7 +31650,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>1361</v>
@@ -31673,7 +31664,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>1352</v>
@@ -31687,7 +31678,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>1367</v>
@@ -31701,7 +31692,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>1369</v>
@@ -31715,7 +31706,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>1374</v>
@@ -31729,7 +31720,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>1375</v>
@@ -31743,7 +31734,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>1377</v>
@@ -31757,7 +31748,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>712</v>
@@ -31771,7 +31762,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>1352</v>
@@ -31785,7 +31776,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>1376</v>
@@ -31799,7 +31790,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>501</v>
@@ -31813,7 +31804,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>506</v>
@@ -31827,7 +31818,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>1394</v>
@@ -31841,7 +31832,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>1377</v>
@@ -31855,7 +31846,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>1395</v>
@@ -31869,7 +31860,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>1352</v>
@@ -31883,7 +31874,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>1396</v>
@@ -31897,7 +31888,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>1397</v>
@@ -31911,7 +31902,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>1410</v>
@@ -31925,7 +31916,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>1411</v>
@@ -31939,7 +31930,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>1352</v>
@@ -31953,7 +31944,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>1412</v>
@@ -31967,7 +31958,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>1377</v>
@@ -31981,7 +31972,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>712</v>
@@ -31995,7 +31986,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>1413</v>
@@ -32009,7 +32000,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>1376</v>
@@ -32023,7 +32014,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>1414</v>
@@ -32037,7 +32028,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>1425</v>
@@ -32051,7 +32042,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>1352</v>
@@ -32065,7 +32056,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1377</v>
@@ -32079,7 +32070,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>712</v>
@@ -32093,7 +32084,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>525</v>
@@ -32107,7 +32098,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>1376</v>
@@ -32121,7 +32112,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>1414</v>
@@ -32135,7 +32126,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>520</v>
@@ -32149,7 +32140,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>1443</v>
@@ -32163,7 +32154,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>1377</v>
@@ -32177,7 +32168,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>712</v>
@@ -32191,7 +32182,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>1352</v>
@@ -32205,7 +32196,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>515</v>
@@ -32219,7 +32210,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>516</v>
@@ -32233,7 +32224,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>101</v>
@@ -32247,7 +32238,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>1459</v>
@@ -32261,7 +32252,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>1460</v>
@@ -32275,7 +32266,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>1461</v>
@@ -32289,7 +32280,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>712</v>
@@ -32303,7 +32294,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>1376</v>
@@ -32317,7 +32308,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>1414</v>
@@ -32331,7 +32322,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>104</v>
@@ -32345,7 +32336,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>98</v>
@@ -32359,7 +32350,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>111</v>
@@ -32373,7 +32364,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>108</v>
@@ -32387,7 +32378,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>529</v>
@@ -32401,7 +32392,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>114</v>
@@ -32415,7 +32406,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>1503</v>
@@ -32429,7 +32420,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>1504</v>
@@ -32464,7 +32455,7 @@
   <cols>
     <col min="1" max="1" width="38.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110" style="14" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.85546875" style="14"/>
@@ -32489,7 +32480,7 @@
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="B2" s="17">
         <v>1</v>
@@ -32506,7 +32497,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>1618</v>
@@ -32514,7 +32505,7 @@
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="B4" s="17">
         <v>2</v>
@@ -32531,7 +32522,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>1631</v>
@@ -32539,21 +32530,21 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="B7" s="17">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>1324</v>
@@ -32564,15 +32555,15 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="B9" s="17">
         <v>4</v>
@@ -32589,7 +32580,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>1624</v>
@@ -32597,7 +32588,7 @@
     </row>
     <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="B11" s="17">
         <v>5</v>
@@ -32614,7 +32605,7 @@
     </row>
     <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="B12" s="17">
         <v>6</v>
@@ -32631,7 +32622,7 @@
     </row>
     <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="B13" s="17">
         <v>7</v>
@@ -32648,7 +32639,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>1625</v>
@@ -32656,7 +32647,7 @@
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="B15" s="17">
         <v>8</v>
@@ -32673,7 +32664,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>1625</v>
@@ -32681,7 +32672,7 @@
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="B17" s="17">
         <v>9</v>
@@ -32698,7 +32689,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>1625</v>
@@ -32706,7 +32697,7 @@
     </row>
     <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="B19" s="17">
         <v>10</v>
@@ -32723,7 +32714,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>1620</v>
@@ -32731,7 +32722,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>1622</v>
@@ -32739,7 +32730,7 @@
     </row>
     <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="B22" s="17">
         <v>11</v>
@@ -32756,7 +32747,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>1628</v>
@@ -32764,15 +32755,15 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="B25" s="17">
         <v>12</v>
@@ -32789,7 +32780,7 @@
     </row>
     <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="B26" s="17">
         <v>13</v>
@@ -32806,7 +32797,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>1632</v>
@@ -32814,13 +32805,13 @@
     </row>
     <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="B28" s="17">
         <v>1</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>1339</v>
@@ -32831,7 +32822,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="B29" s="17">
         <v>2</v>
@@ -32848,7 +32839,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>1636</v>
@@ -32856,7 +32847,7 @@
     </row>
     <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="B31" s="17">
         <v>3</v>
@@ -32873,7 +32864,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>1638</v>
@@ -32881,7 +32872,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>1639</v>
@@ -32889,7 +32880,7 @@
     </row>
     <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="B34" s="17">
         <v>4</v>
@@ -32906,7 +32897,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>1638</v>
@@ -32914,7 +32905,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>1639</v>
@@ -32922,7 +32913,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>1643</v>
@@ -32930,7 +32921,7 @@
     </row>
     <row r="38" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="B38" s="17">
         <v>5</v>
@@ -32947,7 +32938,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>1636</v>
@@ -32955,7 +32946,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>1638</v>
@@ -32963,7 +32954,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>1639</v>
@@ -32971,7 +32962,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>1643</v>
@@ -32979,7 +32970,7 @@
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="B43" s="17">
         <v>6</v>
@@ -32996,7 +32987,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="B44" s="17">
         <v>7</v>
@@ -33013,7 +33004,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>1638</v>
@@ -33021,7 +33012,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>1639</v>
@@ -33029,13 +33020,13 @@
     </row>
     <row r="47" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="B47" s="17">
         <v>8</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>1346</v>
@@ -33046,13 +33037,13 @@
     </row>
     <row r="48" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="B48" s="17">
         <v>1</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>1541</v>
@@ -33063,7 +33054,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>1651</v>
@@ -33071,7 +33062,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>1652</v>
@@ -33079,7 +33070,7 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="B51" s="17">
         <v>2</v>
@@ -33096,7 +33087,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>1652</v>
@@ -33104,7 +33095,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="B53" s="17">
         <v>3</v>
@@ -33121,7 +33112,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="B54" s="17">
         <v>4</v>
@@ -33138,7 +33129,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>1650</v>
@@ -33146,7 +33137,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="B56" s="17">
         <v>5</v>
@@ -33163,7 +33154,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>1650</v>
@@ -33171,7 +33162,7 @@
     </row>
     <row r="58" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="B58" s="17">
         <v>6</v>
@@ -33188,7 +33179,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>1648</v>
@@ -33196,13 +33187,13 @@
     </row>
     <row r="60" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="B60" s="17">
         <v>1</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>1523</v>
@@ -33213,13 +33204,13 @@
     </row>
     <row r="61" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="B61" s="17">
         <v>2</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>1354</v>
@@ -33230,7 +33221,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="B62" s="17">
         <v>3</v>
@@ -33247,7 +33238,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>1657</v>
@@ -33255,7 +33246,7 @@
     </row>
     <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="B64" s="17">
         <v>4</v>
@@ -33272,7 +33263,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="B65" s="17">
         <v>5</v>
@@ -33289,7 +33280,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="B66" s="17">
         <v>6</v>
@@ -33306,7 +33297,7 @@
     </row>
     <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="B67" s="17">
         <v>7</v>
@@ -33323,7 +33314,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>1674</v>
@@ -33331,13 +33322,13 @@
     </row>
     <row r="69" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="B69" s="17">
         <v>8</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>1358</v>
@@ -33348,13 +33339,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="B70" s="17">
         <v>9</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>1359</v>
@@ -33365,13 +33356,13 @@
     </row>
     <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="B71" s="17">
         <v>1</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>1364</v>
@@ -33382,13 +33373,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="B72" s="17">
         <v>2</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>1365</v>
@@ -33399,7 +33390,7 @@
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="B73" s="17">
         <v>3</v>
@@ -33416,7 +33407,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="B74" s="17">
         <v>4</v>
@@ -33433,7 +33424,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>1688</v>
@@ -33441,7 +33432,7 @@
     </row>
     <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="B76" s="17">
         <v>5</v>
@@ -33458,7 +33449,7 @@
     </row>
     <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="B77" s="17">
         <v>6</v>
@@ -33475,7 +33466,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>1687</v>
@@ -33483,7 +33474,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>1688</v>
@@ -33491,13 +33482,13 @@
     </row>
     <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="B80" s="17">
         <v>1</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>1379</v>
@@ -33508,13 +33499,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="B81" s="17">
         <v>2</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>1368</v>
@@ -33525,18 +33516,18 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="B83" s="17">
         <v>3</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>1562</v>
@@ -33547,13 +33538,13 @@
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="B84" s="17">
         <v>1</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>1370</v>
@@ -33564,7 +33555,7 @@
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="B85" s="17">
         <v>2</v>
@@ -33581,7 +33572,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>1717</v>
@@ -33589,7 +33580,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="B87" s="17">
         <v>3</v>
@@ -33606,7 +33597,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>1722</v>
@@ -33614,7 +33605,7 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="B89" s="17">
         <v>4</v>
@@ -33631,7 +33622,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>1724</v>
@@ -33639,7 +33630,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="B91" s="17">
         <v>5</v>
@@ -33656,7 +33647,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>1725</v>
@@ -33664,7 +33655,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="B93" s="17">
         <v>6</v>
@@ -33681,7 +33672,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>1728</v>
@@ -33689,13 +33680,13 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="B95" s="17">
         <v>1</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>1378</v>
@@ -33706,7 +33697,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="B96" s="17">
         <v>2</v>
@@ -33723,7 +33714,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>1744</v>
@@ -33731,7 +33722,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>1741</v>
@@ -33739,7 +33730,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>1742</v>
@@ -33747,7 +33738,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="B100" s="17">
         <v>3</v>
@@ -33764,7 +33755,7 @@
     </row>
     <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="B101" s="17">
         <v>4</v>
@@ -33781,7 +33772,7 @@
     </row>
     <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="B102" s="17">
         <v>5</v>
@@ -33798,7 +33789,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>1742</v>
@@ -33806,7 +33797,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>1744</v>
@@ -33814,7 +33805,7 @@
     </row>
     <row r="105" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="B105" s="17">
         <v>6</v>
@@ -33831,7 +33822,7 @@
     </row>
     <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="B106" s="17">
         <v>7</v>
@@ -33848,7 +33839,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>1758</v>
@@ -33857,7 +33848,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="C108" s="14" t="s">
         <v>1756</v>
@@ -33866,7 +33857,7 @@
     </row>
     <row r="109" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="B109" s="17">
         <v>8</v>
@@ -33883,7 +33874,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>1760</v>
@@ -33892,7 +33883,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>1761</v>
@@ -33901,13 +33892,13 @@
     </row>
     <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="B112" s="17">
         <v>9</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>1516</v>
@@ -33918,13 +33909,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="B113" s="17">
         <v>1</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>1387</v>
@@ -33935,13 +33926,13 @@
     </row>
     <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="B114" s="17">
         <v>2</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>1388</v>
@@ -33952,13 +33943,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="B115" s="17">
         <v>3</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>1517</v>
@@ -33969,13 +33960,13 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="B116" s="17">
         <v>4</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>1518</v>
@@ -33986,13 +33977,13 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="B117" s="17">
         <v>1</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>1393</v>
@@ -34003,7 +33994,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="B118" s="17">
         <v>2</v>
@@ -34020,7 +34011,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="B119" s="17">
         <v>3</v>
@@ -34037,13 +34028,13 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="B120" s="17">
         <v>4</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>1390</v>
@@ -34054,15 +34045,15 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="B122" s="17">
         <v>5</v>
@@ -34079,7 +34070,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>1833</v>
@@ -34087,7 +34078,7 @@
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="B124" s="17">
         <v>1</v>
@@ -34101,7 +34092,7 @@
     </row>
     <row r="125" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="B125" s="17">
         <v>2</v>
@@ -34118,7 +34109,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>1853</v>
@@ -34126,7 +34117,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>1854</v>
@@ -34134,7 +34125,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="B128" s="17">
         <v>3</v>
@@ -34151,7 +34142,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>1851</v>
@@ -34159,7 +34150,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>1855</v>
@@ -34167,7 +34158,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>1856</v>
@@ -34175,7 +34166,7 @@
     </row>
     <row r="132" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="B132" s="17">
         <v>4</v>
@@ -34192,7 +34183,7 @@
     </row>
     <row r="133" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="B133" s="17">
         <v>5</v>
@@ -34209,7 +34200,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>1860</v>
@@ -34217,7 +34208,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>1848</v>
@@ -34225,7 +34216,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="C136" s="19" t="s">
         <v>1852</v>
@@ -34233,7 +34224,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>1853</v>
@@ -34241,7 +34232,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="B138" s="17">
         <v>6</v>
@@ -34258,7 +34249,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>1863</v>
@@ -34266,7 +34257,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>1866</v>
@@ -34274,7 +34265,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="B141" s="17">
         <v>7</v>
@@ -34291,7 +34282,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="B142" s="17">
         <v>8</v>
@@ -34308,7 +34299,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>1862</v>
@@ -34316,7 +34307,7 @@
     </row>
     <row r="144" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="B144" s="17">
         <v>9</v>
@@ -34333,7 +34324,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>1862</v>
@@ -34341,7 +34332,7 @@
     </row>
     <row r="146" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="B146" s="17">
         <v>10</v>
@@ -34358,7 +34349,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>1881</v>
@@ -34366,7 +34357,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>1878</v>
@@ -34374,7 +34365,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="B149" s="17">
         <v>11</v>
@@ -34391,7 +34382,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>1880</v>
@@ -34399,7 +34390,7 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="B151" s="17">
         <v>12</v>
@@ -34416,7 +34407,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="B152" s="17">
         <v>13</v>
@@ -34433,7 +34424,7 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="B153" s="17">
         <v>14</v>
@@ -34450,13 +34441,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="B154" s="17">
         <v>15</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="D154" s="14" t="s">
         <v>1400</v>
@@ -34467,7 +34458,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="B155" s="17">
         <v>16</v>
@@ -34484,7 +34475,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="B156" s="17">
         <v>17</v>
@@ -34501,7 +34492,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="C157" s="14" t="s">
         <v>1856</v>
@@ -34509,7 +34500,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="C158" s="14" t="s">
         <v>1850</v>
@@ -34517,7 +34508,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="C159" s="14" t="s">
         <v>1851</v>
@@ -34525,7 +34516,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>1858</v>
@@ -34533,13 +34524,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="B161" s="17">
         <v>1</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>1420</v>
@@ -34550,13 +34541,13 @@
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="B162" s="17">
         <v>2</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>1531</v>
@@ -34567,7 +34558,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="B163" s="17">
         <v>3</v>
@@ -34584,7 +34575,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>1896</v>
@@ -34592,7 +34583,7 @@
     </row>
     <row r="165" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="B165" s="17">
         <v>4</v>
@@ -34609,7 +34600,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>1896</v>
@@ -34617,7 +34608,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>1898</v>
@@ -34625,7 +34616,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="B168" s="17">
         <v>5</v>
@@ -34642,7 +34633,7 @@
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="B169" s="17">
         <v>6</v>
@@ -34659,7 +34650,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>1904</v>
@@ -34667,7 +34658,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>1907</v>
@@ -34675,7 +34666,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>1908</v>
@@ -34683,7 +34674,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>1909</v>
@@ -34691,7 +34682,7 @@
     </row>
     <row r="174" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="B174" s="17">
         <v>7</v>
@@ -34708,7 +34699,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>1896</v>
@@ -34716,7 +34707,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>1907</v>
@@ -34724,7 +34715,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>1908</v>
@@ -34732,7 +34723,7 @@
     </row>
     <row r="178" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="B178" s="17">
         <v>8</v>
@@ -34749,7 +34740,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="C179" s="14" t="s">
         <v>1903</v>
@@ -34757,7 +34748,7 @@
     </row>
     <row r="180" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="B180" s="17">
         <v>9</v>
@@ -34774,7 +34765,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>1907</v>
@@ -34782,13 +34773,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="B182" s="17">
         <v>10</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>2263</v>
+        <v>1907</v>
       </c>
       <c r="D182" s="14" t="s">
         <v>1422</v>
@@ -34799,15 +34790,15 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="B184" s="17">
         <v>11</v>
@@ -34824,7 +34815,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="C185" s="14" t="s">
         <v>1898</v>
@@ -34832,7 +34823,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="C186" s="14" t="s">
         <v>1899</v>
@@ -34840,7 +34831,7 @@
     </row>
     <row r="187" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="B187" s="17">
         <v>12</v>
@@ -34857,7 +34848,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="C188" s="14" t="s">
         <v>1898</v>
@@ -34865,7 +34856,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="C189" s="14" t="s">
         <v>1911</v>
@@ -34873,7 +34864,7 @@
     </row>
     <row r="190" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="B190" s="17">
         <v>13</v>
@@ -34890,13 +34881,13 @@
     </row>
     <row r="191" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="B191" s="17">
         <v>14</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D191" s="14" t="s">
         <v>1417</v>
@@ -34907,13 +34898,13 @@
     </row>
     <row r="192" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="B192" s="17">
         <v>15</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D192" s="14" t="s">
         <v>1416</v>
@@ -34924,13 +34915,13 @@
     </row>
     <row r="193" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="B193" s="17">
         <v>16</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D193" s="14" t="s">
         <v>1415</v>
@@ -34941,13 +34932,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="B194" s="17">
         <v>1</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D194" s="14" t="s">
         <v>1563</v>
@@ -34958,13 +34949,13 @@
     </row>
     <row r="195" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="B195" s="17">
         <v>2</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D195" s="14" t="s">
         <v>1434</v>
@@ -34975,13 +34966,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="B196" s="17">
         <v>3</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D196" s="14" t="s">
         <v>1433</v>
@@ -34992,7 +34983,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="B197" s="17">
         <v>4</v>
@@ -35009,13 +35000,13 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="B198" s="17">
         <v>5</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D198" s="14" t="s">
         <v>1431</v>
@@ -35026,7 +35017,7 @@
     </row>
     <row r="199" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="B199" s="17">
         <v>6</v>
@@ -35043,7 +35034,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>1929</v>
@@ -35052,7 +35043,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>1925</v>
@@ -35061,13 +35052,13 @@
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="B202" s="17">
         <v>7</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>2264</v>
+        <v>2521</v>
       </c>
       <c r="D202" s="14" t="s">
         <v>1432</v>
@@ -35078,16 +35069,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>2265</v>
+        <v>2522</v>
       </c>
       <c r="E203" s="19"/>
     </row>
     <row r="204" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="B204" s="17">
         <v>8</v>
@@ -35104,7 +35095,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>1925</v>
@@ -35113,7 +35104,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="C206" s="14" t="s">
         <v>1939</v>
@@ -35122,7 +35113,7 @@
     </row>
     <row r="207" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="B207" s="17">
         <v>9</v>
@@ -35139,13 +35130,13 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="B208" s="17">
         <v>10</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D208" s="14" t="s">
         <v>1428</v>
@@ -35156,7 +35147,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="C209" s="14" t="s">
         <v>1927</v>
@@ -35165,13 +35156,13 @@
     </row>
     <row r="210" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="B210" s="17">
         <v>11</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D210" s="14" t="s">
         <v>1429</v>
@@ -35182,13 +35173,13 @@
     </row>
     <row r="211" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="B211" s="17">
         <v>12</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D211" s="14" t="s">
         <v>1430</v>
@@ -35199,49 +35190,49 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="B212" s="17">
         <v>1</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="D212" s="14" t="s">
         <v>1435</v>
       </c>
       <c r="E212" s="14" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="B213" s="17">
         <v>2</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="D213" s="14" t="s">
         <v>1436</v>
       </c>
       <c r="E213" s="14" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="B215" s="17">
         <v>3</v>
@@ -35253,35 +35244,35 @@
         <v>1539</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="B216" s="17">
         <v>4</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="D216" s="14" t="s">
         <v>1437</v>
       </c>
       <c r="E216" s="14" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="B217" s="17">
         <v>1</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="D217" s="14" t="s">
         <v>1438</v>
@@ -35292,7 +35283,7 @@
     </row>
     <row r="218" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="B218" s="17">
         <v>2</v>
@@ -35309,7 +35300,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>1974</v>
@@ -35317,7 +35308,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="B220" s="17">
         <v>3</v>
@@ -35334,7 +35325,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>1982</v>
@@ -35342,7 +35333,7 @@
     </row>
     <row r="222" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="B222" s="17">
         <v>4</v>
@@ -35359,7 +35350,7 @@
     </row>
     <row r="223" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A223" s="19" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="B223" s="17">
         <v>5</v>
@@ -35376,7 +35367,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="19" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="C224" s="14" t="s">
         <v>1986</v>
@@ -35384,7 +35375,7 @@
     </row>
     <row r="225" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="B225" s="17">
         <v>6</v>
@@ -35401,13 +35392,13 @@
     </row>
     <row r="226" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="B226" s="17">
         <v>1</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="D226" s="14" t="s">
         <v>1447</v>
@@ -35418,7 +35409,7 @@
     </row>
     <row r="227" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="B227" s="17">
         <v>2</v>
@@ -35435,7 +35426,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="C228" s="14" t="s">
         <v>2002</v>
@@ -35443,7 +35434,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="C229" s="14" t="s">
         <v>2013</v>
@@ -35451,13 +35442,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="B230" s="17">
         <v>3</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="D230" s="14" t="s">
         <v>1445</v>
@@ -35468,7 +35459,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="B231" s="17">
         <v>4</v>
@@ -35485,7 +35476,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="C232" s="14" t="s">
         <v>2018</v>
@@ -35493,13 +35484,13 @@
     </row>
     <row r="233" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="B233" s="17">
         <v>1</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="D233" s="14" t="s">
         <v>1450</v>
@@ -35510,13 +35501,13 @@
     </row>
     <row r="234" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="B234" s="17">
         <v>2</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="D234" s="14" t="s">
         <v>1449</v>
@@ -35527,13 +35518,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="B235" s="17">
         <v>3</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="D235" s="14" t="s">
         <v>1448</v>
@@ -35544,13 +35535,13 @@
     </row>
     <row r="236" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="B236" s="17">
         <v>1</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="D236" s="14" t="s">
         <v>1454</v>
@@ -35561,13 +35552,13 @@
     </row>
     <row r="237" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="B237" s="17">
         <v>2</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="D237" s="14" t="s">
         <v>1453</v>
@@ -35578,13 +35569,13 @@
     </row>
     <row r="238" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="B238" s="17">
         <v>3</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="D238" s="14" t="s">
         <v>1452</v>
@@ -35595,21 +35586,21 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="B240" s="17">
         <v>4</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="D240" s="14" t="s">
         <v>1451</v>
@@ -35620,13 +35611,13 @@
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="B241" s="17">
         <v>1</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D241" s="14" t="s">
         <v>1458</v>
@@ -35637,13 +35628,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="B242" s="17">
         <v>2</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D242" s="14" t="s">
         <v>1457</v>
@@ -35654,7 +35645,7 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="B243" s="17">
         <v>3</v>
@@ -35671,7 +35662,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="C244" s="14" t="s">
         <v>1673</v>
@@ -35679,7 +35670,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="C245" s="14" t="s">
         <v>1757</v>
@@ -35687,7 +35678,7 @@
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="B246" s="17">
         <v>4</v>
@@ -35704,7 +35695,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="C247" s="14" t="s">
         <v>1673</v>
@@ -35712,7 +35703,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="C248" s="14" t="s">
         <v>1985</v>
@@ -35720,7 +35711,7 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="B249" s="17">
         <v>5</v>
@@ -35737,7 +35728,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="C250" s="14" t="s">
         <v>1673</v>
@@ -35745,7 +35736,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="C251" s="14" t="s">
         <v>1690</v>
@@ -35753,7 +35744,7 @@
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="B252" s="17">
         <v>6</v>
@@ -35770,7 +35761,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="C253" s="14" t="s">
         <v>1673</v>
@@ -35778,7 +35769,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="C254" s="14" t="s">
         <v>1690</v>
@@ -35786,7 +35777,7 @@
     </row>
     <row r="255" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="B255" s="17">
         <v>7</v>
@@ -35803,13 +35794,13 @@
     </row>
     <row r="256" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A256" s="19" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="B256" s="17">
         <v>8</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D256" s="14" t="s">
         <v>1455</v>
@@ -35820,13 +35811,13 @@
     </row>
     <row r="257" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A257" s="19" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="B257" s="17">
         <v>9</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D257" s="14" t="s">
         <v>1430</v>
@@ -35837,13 +35828,13 @@
     </row>
     <row r="258" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="B258" s="17">
         <v>1</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="D258" s="14" t="s">
         <v>1462</v>
@@ -35854,13 +35845,13 @@
     </row>
     <row r="259" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="B259" s="17">
         <v>2</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="D259" s="14" t="s">
         <v>1463</v>
@@ -35871,7 +35862,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="B260" s="17">
         <v>3</v>
@@ -35888,7 +35879,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="C261" s="14" t="s">
         <v>2116</v>
@@ -35896,13 +35887,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="B262" s="17">
         <v>1</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="D262" s="14" t="s">
         <v>1465</v>
@@ -35913,7 +35904,7 @@
     </row>
     <row r="263" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="B263" s="17">
         <v>2</v>
@@ -35930,7 +35921,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="C264" s="14" t="s">
         <v>1796</v>
@@ -35938,7 +35929,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="14" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="C265" s="14" t="s">
         <v>1797</v>
@@ -35946,7 +35937,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="C266" s="14" t="s">
         <v>1798</v>
@@ -35954,13 +35945,13 @@
     </row>
     <row r="267" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="B267" s="17">
         <v>3</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="D267" s="14" t="s">
         <v>1467</v>
@@ -35971,7 +35962,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="B268" s="17">
         <v>4</v>
@@ -35988,7 +35979,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="C269" s="14" t="s">
         <v>1806</v>
@@ -35996,13 +35987,13 @@
     </row>
     <row r="270" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="B270" s="17">
         <v>1</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="D270" s="14" t="s">
         <v>1468</v>
@@ -36013,7 +36004,7 @@
     </row>
     <row r="271" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="B271" s="17">
         <v>2</v>
@@ -36030,7 +36021,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="C272" s="14" t="s">
         <v>2126</v>
@@ -36038,7 +36029,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="C273" s="14" t="s">
         <v>2128</v>
@@ -36046,7 +36037,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="C274" s="14" t="s">
         <v>2129</v>
@@ -36054,7 +36045,7 @@
     </row>
     <row r="275" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="B275" s="17">
         <v>3</v>
@@ -36071,7 +36062,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="C276" s="14" t="s">
         <v>2126</v>
@@ -36079,7 +36070,7 @@
     </row>
     <row r="277" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="B277" s="17">
         <v>4</v>
@@ -36096,7 +36087,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="C278" s="14" t="s">
         <v>2126</v>
@@ -36104,7 +36095,7 @@
     </row>
     <row r="279" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="B279" s="17">
         <v>5</v>
@@ -36121,7 +36112,7 @@
     </row>
     <row r="280" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="B280" s="17">
         <v>6</v>
@@ -36138,7 +36129,7 @@
     </row>
     <row r="281" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="B281" s="17">
         <v>7</v>
@@ -36155,7 +36146,7 @@
     </row>
     <row r="282" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="B282" s="17">
         <v>8</v>
@@ -36172,7 +36163,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="B283" s="17">
         <v>9</v>
@@ -36189,7 +36180,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="C284" s="14" t="s">
         <v>2134</v>
@@ -36197,7 +36188,7 @@
     </row>
     <row r="285" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="B285" s="17">
         <v>10</v>
@@ -36214,7 +36205,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="C286" s="14" t="s">
         <v>2127</v>
@@ -36222,7 +36213,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="C287" s="14" t="s">
         <v>1651</v>
@@ -36230,7 +36221,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="C288" s="14" t="s">
         <v>1650</v>
@@ -36238,7 +36229,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="B289" s="17">
         <v>11</v>
@@ -36255,7 +36246,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="C290" s="14" t="s">
         <v>2129</v>
@@ -36263,7 +36254,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="B291" s="17">
         <v>12</v>
@@ -36280,7 +36271,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="C292" s="14" t="s">
         <v>2130</v>
@@ -36288,7 +36279,7 @@
     </row>
     <row r="293" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="B293" s="17">
         <v>13</v>
@@ -36305,7 +36296,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="C294" s="14" t="s">
         <v>2127</v>
@@ -36313,7 +36304,7 @@
     </row>
     <row r="295" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A295" s="14" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="B295" s="17">
         <v>14</v>
@@ -36330,7 +36321,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="C296" s="14" t="s">
         <v>2130</v>
@@ -36338,7 +36329,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="C297" s="14" t="s">
         <v>2127</v>
@@ -36346,7 +36337,7 @@
     </row>
     <row r="298" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="B298" s="17">
         <v>15</v>
@@ -36363,7 +36354,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="C299" s="14" t="s">
         <v>2128</v>
@@ -36371,7 +36362,7 @@
     </row>
     <row r="300" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A300" s="14" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="B300" s="17">
         <v>16</v>
@@ -36388,13 +36379,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="B301" s="17">
         <v>1</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="D301" s="14" t="s">
         <v>1481</v>
@@ -36405,7 +36396,7 @@
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="B302" s="17">
         <v>2</v>
@@ -36422,7 +36413,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="C303" s="14" t="s">
         <v>2133</v>
@@ -36430,7 +36421,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="C304" s="14" t="s">
         <v>1631</v>
@@ -36438,7 +36429,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="C305" s="14" t="s">
         <v>1630</v>
@@ -36446,7 +36437,7 @@
     </row>
     <row r="306" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="B306" s="17">
         <v>3</v>
@@ -36463,7 +36454,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="C307" s="14" t="s">
         <v>2137</v>
@@ -36471,7 +36462,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="C308" s="14" t="s">
         <v>2134</v>
@@ -36479,7 +36470,7 @@
     </row>
     <row r="309" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="B309" s="17">
         <v>4</v>
@@ -36496,7 +36487,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="C310" s="14" t="s">
         <v>2134</v>
@@ -36504,7 +36495,7 @@
     </row>
     <row r="311" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="B311" s="17">
         <v>5</v>
@@ -36521,7 +36512,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="C312" s="14" t="s">
         <v>2137</v>
@@ -36529,7 +36520,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="C313" s="14" t="s">
         <v>2134</v>
@@ -36537,7 +36528,7 @@
     </row>
     <row r="314" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="B314" s="17">
         <v>6</v>
@@ -36554,7 +36545,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="C315" s="14" t="s">
         <v>2137</v>
@@ -36562,7 +36553,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>2134</v>
@@ -36570,7 +36561,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="C317" s="14" t="s">
         <v>2140</v>
@@ -36578,7 +36569,7 @@
     </row>
     <row r="318" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="B318" s="17">
         <v>7</v>
@@ -36595,7 +36586,7 @@
     </row>
     <row r="319" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="B319" s="17">
         <v>8</v>
@@ -36612,7 +36603,7 @@
     </row>
     <row r="320" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="B320" s="17">
         <v>9</v>
@@ -36629,7 +36620,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="C321" s="14" t="s">
         <v>2137</v>
@@ -36637,7 +36628,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="C322" s="14" t="s">
         <v>2134</v>
@@ -36645,7 +36636,7 @@
     </row>
     <row r="323" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="B323" s="17">
         <v>10</v>
@@ -36662,7 +36653,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="C324" s="14" t="s">
         <v>2134</v>
@@ -36670,7 +36661,7 @@
     </row>
     <row r="325" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="B325" s="17">
         <v>11</v>
@@ -36687,7 +36678,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="C326" s="14" t="s">
         <v>2137</v>
@@ -36698,7 +36689,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="C327" s="14" t="s">
         <v>2134</v>
@@ -36709,13 +36700,13 @@
     </row>
     <row r="328" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="B328" s="17">
         <v>1</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="D328" s="14" t="s">
         <v>1488</v>
@@ -36726,7 +36717,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="B329" s="17">
         <v>2</v>
@@ -36743,7 +36734,7 @@
     </row>
     <row r="330" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="B330" s="17">
         <v>3</v>
@@ -36760,7 +36751,7 @@
     </row>
     <row r="331" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="B331" s="17">
         <v>4</v>
@@ -36777,7 +36768,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="B332" s="17">
         <v>5</v>
@@ -36794,7 +36785,7 @@
     </row>
     <row r="333" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A333" s="14" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="B333" s="17">
         <v>6</v>
@@ -36811,7 +36802,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="14" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="C334" s="14" t="s">
         <v>2143</v>
@@ -36819,7 +36810,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="C335" s="14" t="s">
         <v>2133</v>
@@ -36827,7 +36818,7 @@
     </row>
     <row r="336" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="B336" s="17">
         <v>7</v>
@@ -36844,7 +36835,7 @@
     </row>
     <row r="337" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="B337" s="17">
         <v>8</v>
@@ -36861,7 +36852,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="C338" s="14" t="s">
         <v>2147</v>
@@ -36869,7 +36860,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="14" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="C339" s="14" t="s">
         <v>2148</v>
@@ -36877,7 +36868,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="C340" s="14" t="s">
         <v>2144</v>
@@ -36885,7 +36876,7 @@
     </row>
     <row r="341" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A341" s="14" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="B341" s="17">
         <v>9</v>
@@ -36902,7 +36893,7 @@
     </row>
     <row r="342" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A342" s="14" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="B342" s="17">
         <v>10</v>
@@ -36916,7 +36907,7 @@
     </row>
     <row r="343" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="B343" s="17">
         <v>11</v>
@@ -36930,29 +36921,29 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="14" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="14" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A346" s="14" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="B346" s="17">
         <v>1</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="D346" s="14" t="s">
         <v>1499</v>
@@ -36963,7 +36954,7 @@
     </row>
     <row r="347" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="B347" s="17">
         <v>2</v>
@@ -36980,7 +36971,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="C348" s="14" t="s">
         <v>2154</v>
@@ -36988,7 +36979,7 @@
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="B349" s="17">
         <v>3</v>
@@ -37005,7 +36996,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="C350" s="14" t="s">
         <v>2155</v>
@@ -37013,7 +37004,7 @@
     </row>
     <row r="351" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="B351" s="17">
         <v>4</v>
@@ -37030,7 +37021,7 @@
     </row>
     <row r="352" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="B352" s="17">
         <v>5</v>
@@ -37047,7 +37038,7 @@
     </row>
     <row r="353" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="B353" s="17">
         <v>6</v>
@@ -37064,7 +37055,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="C354" s="14" t="s">
         <v>2152</v>
@@ -37072,7 +37063,7 @@
     </row>
     <row r="355" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A355" s="14" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="B355" s="17">
         <v>7</v>
@@ -37089,7 +37080,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="C356" s="14" t="s">
         <v>2151</v>
@@ -37097,7 +37088,7 @@
     </row>
     <row r="357" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="B357" s="17">
         <v>8</v>
@@ -37114,7 +37105,7 @@
     </row>
     <row r="358" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A358" s="14" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="B358" s="17">
         <v>9</v>
@@ -37131,29 +37122,29 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="14" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="B361" s="17">
         <v>1</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="D361" s="14" t="s">
         <v>1507</v>
@@ -37164,13 +37155,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="B362" s="17">
         <v>2</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="D362" s="14" t="s">
         <v>1506</v>
@@ -37181,7 +37172,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="B363" s="17">
         <v>3</v>
